--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J724"/>
+  <dimension ref="A1:J725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23627,6 +23627,38 @@
         <v>2.619</v>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C725" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="D725" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="E725" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="F725" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="G725" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="H725" t="n">
+        <v>2.621</v>
+      </c>
+      <c r="I725" t="n">
+        <v>2.552</v>
+      </c>
+      <c r="J725" t="n">
+        <v>2.556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J725"/>
+  <dimension ref="A1:J726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23659,6 +23659,38 @@
         <v>2.556</v>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="C726" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="D726" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="E726" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F726" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="G726" t="n">
+        <v>2.671</v>
+      </c>
+      <c r="H726" t="n">
+        <v>2.693</v>
+      </c>
+      <c r="I726" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J726" t="n">
+        <v>2.609</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J726"/>
+  <dimension ref="A1:J729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23691,6 +23691,102 @@
         <v>2.609</v>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>44618</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="C727" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="D727" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="E727" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F727" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="G727" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="H727" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I727" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J727" t="n">
+        <v>2.609</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>44619</v>
+      </c>
+      <c r="B728" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="C728" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="D728" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="E728" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F728" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="G728" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="H728" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I728" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J728" t="n">
+        <v>2.609</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="D729" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="E729" t="n">
+        <v>2.445</v>
+      </c>
+      <c r="F729" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="G729" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="H729" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="I729" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="J729" t="n">
+        <v>2.624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J729"/>
+  <dimension ref="A1:J730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23787,6 +23787,38 @@
         <v>2.624</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B730" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D730" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="E730" t="n">
+        <v>2.445</v>
+      </c>
+      <c r="F730" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G730" t="n">
+        <v>2.685</v>
+      </c>
+      <c r="H730" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="I730" t="n">
+        <v>2.635</v>
+      </c>
+      <c r="J730" t="n">
+        <v>2.624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J730"/>
+  <dimension ref="A1:J731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23819,6 +23819,38 @@
         <v>2.624</v>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B731" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="D731" t="n">
+        <v>2.187</v>
+      </c>
+      <c r="E731" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="F731" t="n">
+        <v>2.406</v>
+      </c>
+      <c r="G731" t="n">
+        <v>2.613</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I731" t="n">
+        <v>2.584</v>
+      </c>
+      <c r="J731" t="n">
+        <v>2.579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J731"/>
+  <dimension ref="A1:J732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23851,6 +23851,38 @@
         <v>2.579</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="D732" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="E732" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F732" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="G732" t="n">
+        <v>2.647</v>
+      </c>
+      <c r="H732" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="I732" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="J732" t="n">
+        <v>2.644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J732"/>
+  <dimension ref="A1:J733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23883,6 +23883,38 @@
         <v>2.644</v>
       </c>
     </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B733" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="D733" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="E733" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="F733" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="G733" t="n">
+        <v>2.662</v>
+      </c>
+      <c r="H733" t="n">
+        <v>2.704</v>
+      </c>
+      <c r="I733" t="n">
+        <v>2.643</v>
+      </c>
+      <c r="J733" t="n">
+        <v>2.621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J733"/>
+  <dimension ref="A1:J736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23915,6 +23915,102 @@
         <v>2.621</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B734" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D734" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E734" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="F734" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="G734" t="n">
+        <v>2.647</v>
+      </c>
+      <c r="H734" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="I734" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="J734" t="n">
+        <v>2.621</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D735" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E735" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="F735" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="G735" t="n">
+        <v>2.647</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="I735" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="J735" t="n">
+        <v>2.621</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B736" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="C736" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="D736" t="n">
+        <v>2.289</v>
+      </c>
+      <c r="E736" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="F736" t="n">
+        <v>2.528</v>
+      </c>
+      <c r="G736" t="n">
+        <v>2.707</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2.697</v>
+      </c>
+      <c r="I736" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="J736" t="n">
+        <v>2.611</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J736"/>
+  <dimension ref="A1:J737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24011,6 +24011,38 @@
         <v>2.611</v>
       </c>
     </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B737" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="C737" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="D737" t="n">
+        <v>2.287</v>
+      </c>
+      <c r="E737" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="F737" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="G737" t="n">
+        <v>2.722</v>
+      </c>
+      <c r="H737" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="I737" t="n">
+        <v>2.633</v>
+      </c>
+      <c r="J737" t="n">
+        <v>2.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J737"/>
+  <dimension ref="A1:J738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24043,6 +24043,38 @@
         <v>2.622</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B738" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="C738" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="D738" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E738" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="F738" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="G738" t="n">
+        <v>2.717</v>
+      </c>
+      <c r="H738" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I738" t="n">
+        <v>2.635</v>
+      </c>
+      <c r="J738" t="n">
+        <v>2.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J738"/>
+  <dimension ref="A1:J739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24075,6 +24075,38 @@
         <v>2.622</v>
       </c>
     </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="C739" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="D739" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="E739" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="F739" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="G739" t="n">
+        <v>2.726</v>
+      </c>
+      <c r="H739" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="I739" t="n">
+        <v>2.633</v>
+      </c>
+      <c r="J739" t="n">
+        <v>2.617</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J739"/>
+  <dimension ref="A1:J740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24107,6 +24107,38 @@
         <v>2.617</v>
       </c>
     </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="C740" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="D740" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="E740" t="n">
+        <v>2.432</v>
+      </c>
+      <c r="F740" t="n">
+        <v>2.485</v>
+      </c>
+      <c r="G740" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H740" t="n">
+        <v>2.697</v>
+      </c>
+      <c r="I740" t="n">
+        <v>2.619</v>
+      </c>
+      <c r="J740" t="n">
+        <v>2.604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J740"/>
+  <dimension ref="A1:J743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24139,6 +24139,102 @@
         <v>2.604</v>
       </c>
     </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="C741" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D741" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="E741" t="n">
+        <v>2.432</v>
+      </c>
+      <c r="F741" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G741" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="H741" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="I741" t="n">
+        <v>2.617</v>
+      </c>
+      <c r="J741" t="n">
+        <v>2.604</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="C742" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D742" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="E742" t="n">
+        <v>2.432</v>
+      </c>
+      <c r="F742" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G742" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="I742" t="n">
+        <v>2.617</v>
+      </c>
+      <c r="J742" t="n">
+        <v>2.604</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C743" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="D743" t="n">
+        <v>2.284</v>
+      </c>
+      <c r="E743" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F743" t="n">
+        <v>2.526</v>
+      </c>
+      <c r="G743" t="n">
+        <v>2.738</v>
+      </c>
+      <c r="H743" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I743" t="n">
+        <v>2.646</v>
+      </c>
+      <c r="J743" t="n">
+        <v>2.634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J743"/>
+  <dimension ref="A1:J744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24235,6 +24235,38 @@
         <v>2.634</v>
       </c>
     </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="C744" t="n">
+        <v>2.074</v>
+      </c>
+      <c r="D744" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="E744" t="n">
+        <v>2.477</v>
+      </c>
+      <c r="F744" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="G744" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="H744" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="I744" t="n">
+        <v>2.666</v>
+      </c>
+      <c r="J744" t="n">
+        <v>2.649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J744"/>
+  <dimension ref="A1:J745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24267,6 +24267,38 @@
         <v>2.649</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B745" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="C745" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D745" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E745" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F745" t="n">
+        <v>2.526</v>
+      </c>
+      <c r="G745" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="H745" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="I745" t="n">
+        <v>2.679</v>
+      </c>
+      <c r="J745" t="n">
+        <v>2.673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J745"/>
+  <dimension ref="A1:J746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24299,6 +24299,38 @@
         <v>2.673</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B746" t="n">
+        <v>1.382</v>
+      </c>
+      <c r="C746" t="n">
+        <v>2.009</v>
+      </c>
+      <c r="D746" t="n">
+        <v>2.217</v>
+      </c>
+      <c r="E746" t="n">
+        <v>2.417</v>
+      </c>
+      <c r="F746" t="n">
+        <v>2.469</v>
+      </c>
+      <c r="G746" t="n">
+        <v>2.704</v>
+      </c>
+      <c r="H746" t="n">
+        <v>2.724</v>
+      </c>
+      <c r="I746" t="n">
+        <v>2.647</v>
+      </c>
+      <c r="J746" t="n">
+        <v>2.639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J746"/>
+  <dimension ref="A1:J747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24331,6 +24331,38 @@
         <v>2.639</v>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B747" t="n">
+        <v>1.387</v>
+      </c>
+      <c r="C747" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="D747" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E747" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F747" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="G747" t="n">
+        <v>2.737</v>
+      </c>
+      <c r="H747" t="n">
+        <v>2.748</v>
+      </c>
+      <c r="I747" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="J747" t="n">
+        <v>2.655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J747"/>
+  <dimension ref="A1:J749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24363,6 +24363,70 @@
         <v>2.655</v>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B748" t="n">
+        <v>1.387</v>
+      </c>
+      <c r="C748" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="D748" t="n">
+        <v>2.227</v>
+      </c>
+      <c r="E748" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F748" t="n">
+        <v>2.496</v>
+      </c>
+      <c r="G748" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="H748" t="n">
+        <v>2.745</v>
+      </c>
+      <c r="I748" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="J748" t="n">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1.396</v>
+      </c>
+      <c r="C749" t="n">
+        <v>2.071</v>
+      </c>
+      <c r="D749" t="n">
+        <v>2.268</v>
+      </c>
+      <c r="E749" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="F749" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G749" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="H749" t="n">
+        <v>2.753</v>
+      </c>
+      <c r="I749" t="n">
+        <v>2.676</v>
+      </c>
+      <c r="J749" t="n">
+        <v>2.657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J749"/>
+  <dimension ref="A1:J750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24427,6 +24427,38 @@
         <v>2.657</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="C750" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="D750" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="E750" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F750" t="n">
+        <v>2.631</v>
+      </c>
+      <c r="G750" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="H750" t="n">
+        <v>2.809</v>
+      </c>
+      <c r="I750" t="n">
+        <v>2.715</v>
+      </c>
+      <c r="J750" t="n">
+        <v>2.692</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J750"/>
+  <dimension ref="A1:J751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24459,6 +24459,38 @@
         <v>2.692</v>
       </c>
     </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B751" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="C751" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D751" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E751" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F751" t="n">
+        <v>2.646</v>
+      </c>
+      <c r="G751" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="H751" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="I751" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J751" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J751"/>
+  <dimension ref="A1:J752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24491,6 +24491,38 @@
         <v>2.68</v>
       </c>
     </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="C752" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="D752" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="E752" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="F752" t="n">
+        <v>2.661</v>
+      </c>
+      <c r="G752" t="n">
+        <v>2.855</v>
+      </c>
+      <c r="H752" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="I752" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="J752" t="n">
+        <v>2.725</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J752"/>
+  <dimension ref="A1:J753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24523,6 +24523,38 @@
         <v>2.725</v>
       </c>
     </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="C753" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="D753" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="E753" t="n">
+        <v>2.697</v>
+      </c>
+      <c r="F753" t="n">
+        <v>2.709</v>
+      </c>
+      <c r="G753" t="n">
+        <v>2.868</v>
+      </c>
+      <c r="H753" t="n">
+        <v>2.866</v>
+      </c>
+      <c r="I753" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="J753" t="n">
+        <v>2.757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J753"/>
+  <dimension ref="A1:J756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24555,6 +24555,102 @@
         <v>2.757</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>44646</v>
+      </c>
+      <c r="B754" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="C754" t="n">
+        <v>2.218</v>
+      </c>
+      <c r="D754" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="E754" t="n">
+        <v>2.697</v>
+      </c>
+      <c r="F754" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="G754" t="n">
+        <v>2.877</v>
+      </c>
+      <c r="H754" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I754" t="n">
+        <v>2.777</v>
+      </c>
+      <c r="J754" t="n">
+        <v>2.757</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B755" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="C755" t="n">
+        <v>2.218</v>
+      </c>
+      <c r="D755" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="E755" t="n">
+        <v>2.697</v>
+      </c>
+      <c r="F755" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="G755" t="n">
+        <v>2.877</v>
+      </c>
+      <c r="H755" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I755" t="n">
+        <v>2.777</v>
+      </c>
+      <c r="J755" t="n">
+        <v>2.757</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B756" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C756" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D756" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="E756" t="n">
+        <v>2.955</v>
+      </c>
+      <c r="F756" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G756" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="H756" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="I756" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="J756" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J756"/>
+  <dimension ref="A1:J757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24651,6 +24651,38 @@
         <v>2.88</v>
       </c>
     </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B757" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C757" t="n">
+        <v>2.407</v>
+      </c>
+      <c r="D757" t="n">
+        <v>2.702</v>
+      </c>
+      <c r="E757" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F757" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="G757" t="n">
+        <v>2.972</v>
+      </c>
+      <c r="H757" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I757" t="n">
+        <v>2.836</v>
+      </c>
+      <c r="J757" t="n">
+        <v>2.809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J757"/>
+  <dimension ref="A1:J758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24683,6 +24683,38 @@
         <v>2.809</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B758" t="n">
+        <v>1.652</v>
+      </c>
+      <c r="C758" t="n">
+        <v>2.356</v>
+      </c>
+      <c r="D758" t="n">
+        <v>2.614</v>
+      </c>
+      <c r="E758" t="n">
+        <v>2.787</v>
+      </c>
+      <c r="F758" t="n">
+        <v>2.801</v>
+      </c>
+      <c r="G758" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="H758" t="n">
+        <v>2.881</v>
+      </c>
+      <c r="I758" t="n">
+        <v>2.737</v>
+      </c>
+      <c r="J758" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J758"/>
+  <dimension ref="A1:J759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24691,7 +24691,7 @@
         <v>1.652</v>
       </c>
       <c r="C758" t="n">
-        <v>2.356</v>
+        <v>2.352</v>
       </c>
       <c r="D758" t="n">
         <v>2.614</v>
@@ -24713,6 +24713,38 @@
       </c>
       <c r="J758" t="n">
         <v>2.74</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B759" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="C759" t="n">
+        <v>2.371</v>
+      </c>
+      <c r="D759" t="n">
+        <v>2.664</v>
+      </c>
+      <c r="E759" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F759" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="G759" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="H759" t="n">
+        <v>2.954</v>
+      </c>
+      <c r="I759" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J759" t="n">
+        <v>2.817</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J759"/>
+  <dimension ref="A1:J760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24747,6 +24747,38 @@
         <v>2.817</v>
       </c>
     </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B760" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C760" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="D760" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="E760" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="F760" t="n">
+        <v>2.943</v>
+      </c>
+      <c r="G760" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="H760" t="n">
+        <v>2.979</v>
+      </c>
+      <c r="I760" t="n">
+        <v>2.881</v>
+      </c>
+      <c r="J760" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J760"/>
+  <dimension ref="A1:J763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24779,6 +24779,102 @@
         <v>2.87</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="B761" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C761" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D761" t="n">
+        <v>2.782</v>
+      </c>
+      <c r="E761" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="F761" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="G761" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="H761" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="I761" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J761" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C762" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D762" t="n">
+        <v>2.782</v>
+      </c>
+      <c r="E762" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="F762" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="G762" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="H762" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="I762" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J762" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B763" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="C763" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="D763" t="n">
+        <v>2.841</v>
+      </c>
+      <c r="E763" t="n">
+        <v>2.945</v>
+      </c>
+      <c r="F763" t="n">
+        <v>3.019</v>
+      </c>
+      <c r="G763" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="H763" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="J763" t="n">
+        <v>3.007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J763"/>
+  <dimension ref="A1:J764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24875,6 +24875,38 @@
         <v>3.007</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B764" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="C764" t="n">
+        <v>2.629</v>
+      </c>
+      <c r="D764" t="n">
+        <v>2.877</v>
+      </c>
+      <c r="E764" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="F764" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="G764" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H764" t="n">
+        <v>3.078</v>
+      </c>
+      <c r="I764" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="J764" t="n">
+        <v>3.015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J764"/>
+  <dimension ref="A1:J765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24907,6 +24907,38 @@
         <v>3.015</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B765" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="C765" t="n">
+        <v>2.748</v>
+      </c>
+      <c r="D765" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="E765" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="F765" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="G765" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="H765" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="I765" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J765" t="n">
+        <v>3.024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J765"/>
+  <dimension ref="A1:J766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24939,6 +24939,38 @@
         <v>3.024</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B766" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="C766" t="n">
+        <v>2.719</v>
+      </c>
+      <c r="D766" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="E766" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="F766" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="G766" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="H766" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I766" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J766" t="n">
+        <v>3.027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J766"/>
+  <dimension ref="A1:J767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24971,6 +24971,38 @@
         <v>3.027</v>
       </c>
     </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B767" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C767" t="n">
+        <v>2.804</v>
+      </c>
+      <c r="D767" t="n">
+        <v>2.985</v>
+      </c>
+      <c r="E767" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="F767" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="G767" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="H767" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="I767" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="J767" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J767"/>
+  <dimension ref="A1:J770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25003,6 +25003,102 @@
         <v>3.04</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>44660</v>
+      </c>
+      <c r="B768" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C768" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D768" t="n">
+        <v>3</v>
+      </c>
+      <c r="E768" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="F768" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G768" t="n">
+        <v>3.181</v>
+      </c>
+      <c r="H768" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I768" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J768" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B769" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C769" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D769" t="n">
+        <v>3</v>
+      </c>
+      <c r="E769" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="F769" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G769" t="n">
+        <v>3.181</v>
+      </c>
+      <c r="H769" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I769" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J769" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B770" t="n">
+        <v>2.435</v>
+      </c>
+      <c r="C770" t="n">
+        <v>2.981</v>
+      </c>
+      <c r="D770" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="E770" t="n">
+        <v>3.325</v>
+      </c>
+      <c r="F770" t="n">
+        <v>3.297</v>
+      </c>
+      <c r="G770" t="n">
+        <v>3.298</v>
+      </c>
+      <c r="H770" t="n">
+        <v>3.252</v>
+      </c>
+      <c r="I770" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="J770" t="n">
+        <v>3.145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J770"/>
+  <dimension ref="A1:J771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25099,6 +25099,38 @@
         <v>3.145</v>
       </c>
     </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B771" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="C771" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="D771" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="E771" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="F771" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G771" t="n">
+        <v>3.314</v>
+      </c>
+      <c r="H771" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="I771" t="n">
+        <v>3.153</v>
+      </c>
+      <c r="J771" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J771"/>
+  <dimension ref="A1:J772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25131,6 +25131,38 @@
         <v>3.12</v>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="C772" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="D772" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="E772" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="F772" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="G772" t="n">
+        <v>3.284</v>
+      </c>
+      <c r="H772" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="I772" t="n">
+        <v>3.107</v>
+      </c>
+      <c r="J772" t="n">
+        <v>3.105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J772"/>
+  <dimension ref="A1:J773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25163,6 +25163,38 @@
         <v>3.105</v>
       </c>
     </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="C773" t="n">
+        <v>2.764</v>
+      </c>
+      <c r="D773" t="n">
+        <v>2.892</v>
+      </c>
+      <c r="E773" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="F773" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="G773" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="H773" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="I773" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J773" t="n">
+        <v>3.067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J773"/>
+  <dimension ref="A1:J774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25195,6 +25195,38 @@
         <v>3.067</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="C774" t="n">
+        <v>2.772</v>
+      </c>
+      <c r="D774" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="E774" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="F774" t="n">
+        <v>3.153</v>
+      </c>
+      <c r="G774" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H774" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="I774" t="n">
+        <v>3.144</v>
+      </c>
+      <c r="J774" t="n">
+        <v>3.171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J774"/>
+  <dimension ref="A1:J777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25227,6 +25227,102 @@
         <v>3.171</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>44667</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="C775" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D775" t="n">
+        <v>2.953</v>
+      </c>
+      <c r="E775" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="F775" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G775" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H775" t="n">
+        <v>3.275</v>
+      </c>
+      <c r="I775" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J775" t="n">
+        <v>3.171</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="C776" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D776" t="n">
+        <v>2.953</v>
+      </c>
+      <c r="E776" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="F776" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G776" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H776" t="n">
+        <v>3.275</v>
+      </c>
+      <c r="I776" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J776" t="n">
+        <v>3.171</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B777" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="C777" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D777" t="n">
+        <v>2.985</v>
+      </c>
+      <c r="E777" t="n">
+        <v>3.185</v>
+      </c>
+      <c r="F777" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="G777" t="n">
+        <v>3.352</v>
+      </c>
+      <c r="H777" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I777" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="J777" t="n">
+        <v>3.248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J777"/>
+  <dimension ref="A1:J778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25323,6 +25323,38 @@
         <v>3.248</v>
       </c>
     </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="C778" t="n">
+        <v>2.794</v>
+      </c>
+      <c r="D778" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="E778" t="n">
+        <v>3.148</v>
+      </c>
+      <c r="F778" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="G778" t="n">
+        <v>3.363</v>
+      </c>
+      <c r="H778" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="I778" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="J778" t="n">
+        <v>3.196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J778"/>
+  <dimension ref="A1:J779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25355,6 +25355,38 @@
         <v>3.196</v>
       </c>
     </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="C779" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="D779" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="E779" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F779" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="G779" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="H779" t="n">
+        <v>3.313</v>
+      </c>
+      <c r="I779" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J779" t="n">
+        <v>3.201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J779"/>
+  <dimension ref="A1:J780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25387,6 +25387,38 @@
         <v>3.201</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="C780" t="n">
+        <v>2.713</v>
+      </c>
+      <c r="D780" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E780" t="n">
+        <v>3.152</v>
+      </c>
+      <c r="F780" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="G780" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H780" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="I780" t="n">
+        <v>3.204</v>
+      </c>
+      <c r="J780" t="n">
+        <v>3.213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J780"/>
+  <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25419,6 +25419,38 @@
         <v>3.213</v>
       </c>
     </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="C781" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="D781" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="E781" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F781" t="n">
+        <v>3.244</v>
+      </c>
+      <c r="G781" t="n">
+        <v>3.347</v>
+      </c>
+      <c r="H781" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="I781" t="n">
+        <v>3.252</v>
+      </c>
+      <c r="J781" t="n">
+        <v>3.216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J781"/>
+  <dimension ref="A1:J784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25451,6 +25451,102 @@
         <v>3.216</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" s="2" t="n">
+        <v>44674</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="C782" t="n">
+        <v>2.732</v>
+      </c>
+      <c r="D782" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E782" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F782" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="G782" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="H782" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I782" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="J782" t="n">
+        <v>3.216</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="C783" t="n">
+        <v>2.732</v>
+      </c>
+      <c r="D783" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E783" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F783" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="G783" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="H783" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I783" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="J783" t="n">
+        <v>3.216</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="C784" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="D784" t="n">
+        <v>2.884</v>
+      </c>
+      <c r="E784" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F784" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="G784" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="H784" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I784" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="J784" t="n">
+        <v>3.121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J784"/>
+  <dimension ref="A1:J785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25547,6 +25547,38 @@
         <v>3.121</v>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="C785" t="n">
+        <v>2.655</v>
+      </c>
+      <c r="D785" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="E785" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="F785" t="n">
+        <v>3.091</v>
+      </c>
+      <c r="G785" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="H785" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="I785" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="J785" t="n">
+        <v>3.121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J785"/>
+  <dimension ref="A1:J786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25579,6 +25579,38 @@
         <v>3.121</v>
       </c>
     </row>
+    <row r="786">
+      <c r="A786" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="C786" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="D786" t="n">
+        <v>2.868</v>
+      </c>
+      <c r="E786" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F786" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="G786" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="H786" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="I786" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="J786" t="n">
+        <v>3.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J786"/>
+  <dimension ref="A1:J787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25611,6 +25611,38 @@
         <v>3.111</v>
       </c>
     </row>
+    <row r="787">
+      <c r="A787" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B787" t="n">
+        <v>2.203</v>
+      </c>
+      <c r="C787" t="n">
+        <v>2.745</v>
+      </c>
+      <c r="D787" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="E787" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F787" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="G787" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="H787" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="I787" t="n">
+        <v>3.092</v>
+      </c>
+      <c r="J787" t="n">
+        <v>3.076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J787"/>
+  <dimension ref="A1:J788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25643,6 +25643,38 @@
         <v>3.076</v>
       </c>
     </row>
+    <row r="788">
+      <c r="A788" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B788" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="C788" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D788" t="n">
+        <v>2.958</v>
+      </c>
+      <c r="E788" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="F788" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="G788" t="n">
+        <v>3.245</v>
+      </c>
+      <c r="H788" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="I788" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J788" t="n">
+        <v>3.161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J788"/>
+  <dimension ref="A1:J791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25675,6 +25675,102 @@
         <v>3.161</v>
       </c>
     </row>
+    <row r="789">
+      <c r="A789" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B789" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="D789" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E789" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="F789" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G789" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="H789" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="I789" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J789" t="n">
+        <v>3.161</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B790" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="C790" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="D790" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E790" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="F790" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G790" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="H790" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="I790" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J790" t="n">
+        <v>3.161</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B791" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="C791" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="D791" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E791" t="n">
+        <v>3.281</v>
+      </c>
+      <c r="F791" t="n">
+        <v>3.309</v>
+      </c>
+      <c r="G791" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="H791" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="I791" t="n">
+        <v>3.279</v>
+      </c>
+      <c r="J791" t="n">
+        <v>3.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J791"/>
+  <dimension ref="A1:J792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25771,6 +25771,38 @@
         <v>3.273</v>
       </c>
     </row>
+    <row r="792">
+      <c r="A792" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B792" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C792" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="D792" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E792" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="F792" t="n">
+        <v>3.351</v>
+      </c>
+      <c r="G792" t="n">
+        <v>3.408</v>
+      </c>
+      <c r="H792" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="I792" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="J792" t="n">
+        <v>3.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J792"/>
+  <dimension ref="A1:J793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25803,6 +25803,38 @@
         <v>3.273</v>
       </c>
     </row>
+    <row r="793">
+      <c r="A793" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B793" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C793" t="n">
+        <v>3</v>
+      </c>
+      <c r="D793" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="E793" t="n">
+        <v>3.347</v>
+      </c>
+      <c r="F793" t="n">
+        <v>3.428</v>
+      </c>
+      <c r="G793" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="H793" t="n">
+        <v>3.396</v>
+      </c>
+      <c r="I793" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="J793" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J793"/>
+  <dimension ref="A1:J794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25835,6 +25835,38 @@
         <v>3.28</v>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B794" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C794" t="n">
+        <v>2.958</v>
+      </c>
+      <c r="D794" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="E794" t="n">
+        <v>3.347</v>
+      </c>
+      <c r="F794" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="G794" t="n">
+        <v>3.428</v>
+      </c>
+      <c r="H794" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="I794" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="J794" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J794"/>
+  <dimension ref="A1:J795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25867,6 +25867,38 @@
         <v>3.28</v>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B795" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="C795" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="D795" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="E795" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="F795" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="G795" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="H795" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I795" t="n">
+        <v>3.287</v>
+      </c>
+      <c r="J795" t="n">
+        <v>3.276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J795"/>
+  <dimension ref="A1:J798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25899,6 +25899,102 @@
         <v>3.276</v>
       </c>
     </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B796" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="C796" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="D796" t="n">
+        <v>3.145</v>
+      </c>
+      <c r="E796" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="F796" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="G796" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H796" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="I796" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="J796" t="n">
+        <v>3.276</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B797" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="C797" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="D797" t="n">
+        <v>3.145</v>
+      </c>
+      <c r="E797" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="F797" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="G797" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H797" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="I797" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="J797" t="n">
+        <v>3.276</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B798" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C798" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="D798" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E798" t="n">
+        <v>3.279</v>
+      </c>
+      <c r="F798" t="n">
+        <v>3.319</v>
+      </c>
+      <c r="G798" t="n">
+        <v>3.413</v>
+      </c>
+      <c r="H798" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="I798" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="J798" t="n">
+        <v>3.296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J798"/>
+  <dimension ref="A1:J799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25995,6 +25995,38 @@
         <v>3.296</v>
       </c>
     </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B799" t="n">
+        <v>2.241</v>
+      </c>
+      <c r="C799" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="D799" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="E799" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F799" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="G799" t="n">
+        <v>3.403</v>
+      </c>
+      <c r="H799" t="n">
+        <v>3.383</v>
+      </c>
+      <c r="I799" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J799" t="n">
+        <v>3.288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J799"/>
+  <dimension ref="A1:J800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26027,6 +26027,38 @@
         <v>3.288</v>
       </c>
     </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B800" t="n">
+        <v>2.169</v>
+      </c>
+      <c r="C800" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="D800" t="n">
+        <v>2.935</v>
+      </c>
+      <c r="E800" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F800" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="G800" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="H800" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I800" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="J800" t="n">
+        <v>3.176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J800"/>
+  <dimension ref="A1:J801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26059,6 +26059,38 @@
         <v>3.176</v>
       </c>
     </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B801" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="C801" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D801" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="E801" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F801" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G801" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="H801" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="I801" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="J801" t="n">
+        <v>3.081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J801"/>
+  <dimension ref="A1:J802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26091,6 +26091,38 @@
         <v>3.081</v>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B802" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="C802" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="D802" t="n">
+        <v>2.907</v>
+      </c>
+      <c r="E802" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="F802" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="G802" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="H802" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="I802" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="J802" t="n">
+        <v>3.095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J802"/>
+  <dimension ref="A1:J805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26123,6 +26123,102 @@
         <v>3.095</v>
       </c>
     </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B803" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="C803" t="n">
+        <v>2.696</v>
+      </c>
+      <c r="D803" t="n">
+        <v>2.922</v>
+      </c>
+      <c r="E803" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="F803" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="G803" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H803" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="I803" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J803" t="n">
+        <v>3.095</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B804" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="C804" t="n">
+        <v>2.696</v>
+      </c>
+      <c r="D804" t="n">
+        <v>2.922</v>
+      </c>
+      <c r="E804" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="F804" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="G804" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H804" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="I804" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J804" t="n">
+        <v>3.095</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B805" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C805" t="n">
+        <v>2.824</v>
+      </c>
+      <c r="D805" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="E805" t="n">
+        <v>3.187</v>
+      </c>
+      <c r="F805" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="G805" t="n">
+        <v>3.291</v>
+      </c>
+      <c r="H805" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="I805" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="J805" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J805"/>
+  <dimension ref="A1:J806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26219,6 +26219,38 @@
         <v>3.11</v>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B806" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="C806" t="n">
+        <v>2.807</v>
+      </c>
+      <c r="D806" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="E806" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="F806" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="G806" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="H806" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="I806" t="n">
+        <v>3.149</v>
+      </c>
+      <c r="J806" t="n">
+        <v>3.108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J806"/>
+  <dimension ref="A1:J807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26251,6 +26251,38 @@
         <v>3.108</v>
       </c>
     </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B807" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="C807" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="D807" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="E807" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="F807" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="G807" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H807" t="n">
+        <v>3.255</v>
+      </c>
+      <c r="I807" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="J807" t="n">
+        <v>3.133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J807"/>
+  <dimension ref="A1:J808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26283,6 +26283,38 @@
         <v>3.133</v>
       </c>
     </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B808" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C808" t="n">
+        <v>2.777</v>
+      </c>
+      <c r="D808" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="E808" t="n">
+        <v>3.213</v>
+      </c>
+      <c r="F808" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="G808" t="n">
+        <v>3.307</v>
+      </c>
+      <c r="H808" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="I808" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="J808" t="n">
+        <v>3.135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J808"/>
+  <dimension ref="A1:J809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26315,6 +26315,38 @@
         <v>3.135</v>
       </c>
     </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B809" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C809" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D809" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="E809" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="F809" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="G809" t="n">
+        <v>3.247</v>
+      </c>
+      <c r="H809" t="n">
+        <v>3.236</v>
+      </c>
+      <c r="I809" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="J809" t="n">
+        <v>3.105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J809"/>
+  <dimension ref="A1:J812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26347,6 +26347,102 @@
         <v>3.105</v>
       </c>
     </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="B810" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C810" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D810" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="E810" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="F810" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="G810" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="H810" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="I810" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="J810" t="n">
+        <v>3.105</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B811" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C811" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D811" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="E811" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="F811" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="G811" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="H811" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="I811" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="J811" t="n">
+        <v>3.105</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B812" t="n">
+        <v>2.311</v>
+      </c>
+      <c r="C812" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="D812" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="E812" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="F812" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="G812" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="H812" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="I812" t="n">
+        <v>3.144</v>
+      </c>
+      <c r="J812" t="n">
+        <v>3.124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J812"/>
+  <dimension ref="A1:J813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26443,6 +26443,38 @@
         <v>3.124</v>
       </c>
     </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B813" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="C813" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D813" t="n">
+        <v>2.967</v>
+      </c>
+      <c r="E813" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F813" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="G813" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="H813" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="I813" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="J813" t="n">
+        <v>3.095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J813"/>
+  <dimension ref="A1:J814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26475,6 +26475,38 @@
         <v>3.095</v>
       </c>
     </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B814" t="n">
+        <v>2.292</v>
+      </c>
+      <c r="C814" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D814" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="E814" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F814" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G814" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="H814" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="I814" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="J814" t="n">
+        <v>3.058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J814"/>
+  <dimension ref="A1:J815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26507,6 +26507,38 @@
         <v>3.058</v>
       </c>
     </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B815" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="C815" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D815" t="n">
+        <v>2.955</v>
+      </c>
+      <c r="E815" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F815" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="G815" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="H815" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="I815" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="J815" t="n">
+        <v>3.113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J815"/>
+  <dimension ref="A1:J816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26539,6 +26539,38 @@
         <v>3.113</v>
       </c>
     </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B816" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="C816" t="n">
+        <v>2.691</v>
+      </c>
+      <c r="D816" t="n">
+        <v>2.946</v>
+      </c>
+      <c r="E816" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F816" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="G816" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="H816" t="n">
+        <v>3.192</v>
+      </c>
+      <c r="I816" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="J816" t="n">
+        <v>3.076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J816"/>
+  <dimension ref="A1:J819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26571,6 +26571,102 @@
         <v>3.076</v>
       </c>
     </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B817" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="C817" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="D817" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E817" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F817" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G817" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="H817" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="I817" t="n">
+        <v>3.098</v>
+      </c>
+      <c r="J817" t="n">
+        <v>3.076</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B818" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="C818" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="D818" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E818" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="F818" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G818" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="H818" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="I818" t="n">
+        <v>3.098</v>
+      </c>
+      <c r="J818" t="n">
+        <v>3.076</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B819" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C819" t="n">
+        <v>2.687</v>
+      </c>
+      <c r="D819" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="E819" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="F819" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="G819" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="H819" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="J819" t="n">
+        <v>3.048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J819"/>
+  <dimension ref="A1:J820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26667,6 +26667,38 @@
         <v>3.048</v>
       </c>
     </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B820" t="n">
+        <v>2.253</v>
+      </c>
+      <c r="C820" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="D820" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E820" t="n">
+        <v>3.189</v>
+      </c>
+      <c r="F820" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="G820" t="n">
+        <v>3.324</v>
+      </c>
+      <c r="H820" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="I820" t="n">
+        <v>3.128</v>
+      </c>
+      <c r="J820" t="n">
+        <v>3.123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J820"/>
+  <dimension ref="A1:J822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26699,6 +26699,70 @@
         <v>3.123</v>
       </c>
     </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B821" t="n">
+        <v>2.253</v>
+      </c>
+      <c r="C821" t="n">
+        <v>2.758</v>
+      </c>
+      <c r="D821" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="E821" t="n">
+        <v>3.189</v>
+      </c>
+      <c r="F821" t="n">
+        <v>3.252</v>
+      </c>
+      <c r="G821" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H821" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="I821" t="n">
+        <v>3.145</v>
+      </c>
+      <c r="J821" t="n">
+        <v>3.123</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B822" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="C822" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="D822" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="E822" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F822" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="G822" t="n">
+        <v>3.422</v>
+      </c>
+      <c r="H822" t="n">
+        <v>3.337</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="J822" t="n">
+        <v>3.168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J822"/>
+  <dimension ref="A1:J823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26763,6 +26763,38 @@
         <v>3.168</v>
       </c>
     </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B823" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C823" t="n">
+        <v>2.851</v>
+      </c>
+      <c r="D823" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E823" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="F823" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="G823" t="n">
+        <v>3.403</v>
+      </c>
+      <c r="H823" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I823" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J823" t="n">
+        <v>3.138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J823"/>
+  <dimension ref="A1:J826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26795,6 +26795,102 @@
         <v>3.138</v>
       </c>
     </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="B824" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C824" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="D824" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E824" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="F824" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="G824" t="n">
+        <v>3.407</v>
+      </c>
+      <c r="H824" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I824" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J824" t="n">
+        <v>3.138</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B825" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C825" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="D825" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E825" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="F825" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="G825" t="n">
+        <v>3.407</v>
+      </c>
+      <c r="H825" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I825" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J825" t="n">
+        <v>3.138</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B826" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C826" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="D826" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E826" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="F826" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="G826" t="n">
+        <v>3.407</v>
+      </c>
+      <c r="H826" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I826" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J826" t="n">
+        <v>3.138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J826"/>
+  <dimension ref="A1:J827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26891,6 +26891,38 @@
         <v>3.138</v>
       </c>
     </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B827" t="n">
+        <v>2.361</v>
+      </c>
+      <c r="C827" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="D827" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="E827" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F827" t="n">
+        <v>3.501</v>
+      </c>
+      <c r="G827" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="H827" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="I827" t="n">
+        <v>3.236</v>
+      </c>
+      <c r="J827" t="n">
+        <v>3.211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J827"/>
+  <dimension ref="A1:J829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26923,6 +26923,70 @@
         <v>3.211</v>
       </c>
     </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B828" t="n">
+        <v>2.358</v>
+      </c>
+      <c r="C828" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="D828" t="n">
+        <v>3.214</v>
+      </c>
+      <c r="E828" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="F828" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G828" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="H828" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="I828" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="J828" t="n">
+        <v>3.141</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B829" t="n">
+        <v>2.353</v>
+      </c>
+      <c r="C829" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D829" t="n">
+        <v>3.245</v>
+      </c>
+      <c r="E829" t="n">
+        <v>3.332</v>
+      </c>
+      <c r="F829" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="G829" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="H829" t="n">
+        <v>3.339</v>
+      </c>
+      <c r="I829" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J829" t="n">
+        <v>3.158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J829"/>
+  <dimension ref="A1:J830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26987,6 +26987,38 @@
         <v>3.158</v>
       </c>
     </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B830" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C830" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="D830" t="n">
+        <v>3.275</v>
+      </c>
+      <c r="E830" t="n">
+        <v>3.376</v>
+      </c>
+      <c r="F830" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="G830" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="H830" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="I830" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="J830" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J830"/>
+  <dimension ref="A1:J832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27019,6 +27019,70 @@
         <v>3.16</v>
       </c>
     </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B831" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C831" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="D831" t="n">
+        <v>3.275</v>
+      </c>
+      <c r="E831" t="n">
+        <v>3.376</v>
+      </c>
+      <c r="F831" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="G831" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H831" t="n">
+        <v>3.404</v>
+      </c>
+      <c r="I831" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J831" t="n">
+        <v>3.241</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B832" t="n">
+        <v>2.426</v>
+      </c>
+      <c r="C832" t="n">
+        <v>3.358</v>
+      </c>
+      <c r="D832" t="n">
+        <v>3.483</v>
+      </c>
+      <c r="E832" t="n">
+        <v>3.626</v>
+      </c>
+      <c r="F832" t="n">
+        <v>3.652</v>
+      </c>
+      <c r="G832" t="n">
+        <v>3.644</v>
+      </c>
+      <c r="H832" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I832" t="n">
+        <v>3.383</v>
+      </c>
+      <c r="J832" t="n">
+        <v>3.371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J832"/>
+  <dimension ref="A1:J833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27083,6 +27083,38 @@
         <v>3.371</v>
       </c>
     </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B833" t="n">
+        <v>2.445</v>
+      </c>
+      <c r="C833" t="n">
+        <v>3.393</v>
+      </c>
+      <c r="D833" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="E833" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F833" t="n">
+        <v>3.706</v>
+      </c>
+      <c r="G833" t="n">
+        <v>3.697</v>
+      </c>
+      <c r="H833" t="n">
+        <v>3.591</v>
+      </c>
+      <c r="I833" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="J833" t="n">
+        <v>3.399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J833"/>
+  <dimension ref="A1:J836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27115,6 +27115,102 @@
         <v>3.399</v>
       </c>
     </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B834" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C834" t="n">
+        <v>3.506</v>
+      </c>
+      <c r="D834" t="n">
+        <v>3.674</v>
+      </c>
+      <c r="E834" t="n">
+        <v>3.753</v>
+      </c>
+      <c r="F834" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="G834" t="n">
+        <v>3.803</v>
+      </c>
+      <c r="H834" t="n">
+        <v>3.665</v>
+      </c>
+      <c r="I834" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="J834" t="n">
+        <v>3.461</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B835" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="C835" t="n">
+        <v>3.618</v>
+      </c>
+      <c r="D835" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E835" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="F835" t="n">
+        <v>3.831</v>
+      </c>
+      <c r="G835" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="H835" t="n">
+        <v>3.675</v>
+      </c>
+      <c r="I835" t="n">
+        <v>3.498</v>
+      </c>
+      <c r="J835" t="n">
+        <v>3.516</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B836" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="C836" t="n">
+        <v>3.656</v>
+      </c>
+      <c r="D836" t="n">
+        <v>3.735</v>
+      </c>
+      <c r="E836" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F836" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="G836" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="H836" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="I836" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="J836" t="n">
+        <v>3.541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J836"/>
+  <dimension ref="A1:J838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27211,6 +27211,70 @@
         <v>3.541</v>
       </c>
     </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B837" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="C837" t="n">
+        <v>3.656</v>
+      </c>
+      <c r="D837" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E837" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F837" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="G837" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="H837" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I837" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J837" t="n">
+        <v>3.541</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B838" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="C838" t="n">
+        <v>3.591</v>
+      </c>
+      <c r="D838" t="n">
+        <v>3.695</v>
+      </c>
+      <c r="E838" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="F838" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="G838" t="n">
+        <v>3.777</v>
+      </c>
+      <c r="H838" t="n">
+        <v>3.709</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3.578</v>
+      </c>
+      <c r="J838" t="n">
+        <v>3.561</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J838"/>
+  <dimension ref="A1:J839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27275,6 +27275,38 @@
         <v>3.561</v>
       </c>
     </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B839" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="C839" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="D839" t="n">
+        <v>3.663</v>
+      </c>
+      <c r="E839" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F839" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="G839" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="H839" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="I839" t="n">
+        <v>3.567</v>
+      </c>
+      <c r="J839" t="n">
+        <v>3.544</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J839"/>
+  <dimension ref="A1:J840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27307,6 +27307,38 @@
         <v>3.544</v>
       </c>
     </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B840" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="C840" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="D840" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="E840" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F840" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G840" t="n">
+        <v>3.703</v>
+      </c>
+      <c r="H840" t="n">
+        <v>3.637</v>
+      </c>
+      <c r="I840" t="n">
+        <v>3.515</v>
+      </c>
+      <c r="J840" t="n">
+        <v>3.466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J840"/>
+  <dimension ref="A1:J841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27339,6 +27339,38 @@
         <v>3.466</v>
       </c>
     </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B841" t="n">
+        <v>2.855</v>
+      </c>
+      <c r="C841" t="n">
+        <v>3.554</v>
+      </c>
+      <c r="D841" t="n">
+        <v>3.597</v>
+      </c>
+      <c r="E841" t="n">
+        <v>3.725</v>
+      </c>
+      <c r="F841" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="G841" t="n">
+        <v>3.695</v>
+      </c>
+      <c r="H841" t="n">
+        <v>3.626</v>
+      </c>
+      <c r="I841" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="J841" t="n">
+        <v>3.496</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J841"/>
+  <dimension ref="A1:J842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27371,6 +27371,38 @@
         <v>3.496</v>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B842" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="C842" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="D842" t="n">
+        <v>3.526</v>
+      </c>
+      <c r="E842" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F842" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="G842" t="n">
+        <v>3.642</v>
+      </c>
+      <c r="H842" t="n">
+        <v>3.597</v>
+      </c>
+      <c r="I842" t="n">
+        <v>3.483</v>
+      </c>
+      <c r="J842" t="n">
+        <v>3.444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J842"/>
+  <dimension ref="A1:J845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27403,6 +27403,102 @@
         <v>3.444</v>
       </c>
     </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>44737</v>
+      </c>
+      <c r="B843" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="C843" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="D843" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E843" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F843" t="n">
+        <v>3.662</v>
+      </c>
+      <c r="G843" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="H843" t="n">
+        <v>3.566</v>
+      </c>
+      <c r="I843" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="J843" t="n">
+        <v>3.444</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B844" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="C844" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="D844" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E844" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F844" t="n">
+        <v>3.662</v>
+      </c>
+      <c r="G844" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="H844" t="n">
+        <v>3.566</v>
+      </c>
+      <c r="I844" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="J844" t="n">
+        <v>3.444</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B845" t="n">
+        <v>2.871</v>
+      </c>
+      <c r="C845" t="n">
+        <v>3.513</v>
+      </c>
+      <c r="D845" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E845" t="n">
+        <v>3.681</v>
+      </c>
+      <c r="F845" t="n">
+        <v>3.728</v>
+      </c>
+      <c r="G845" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="H845" t="n">
+        <v>3.637</v>
+      </c>
+      <c r="I845" t="n">
+        <v>3.532</v>
+      </c>
+      <c r="J845" t="n">
+        <v>3.506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J845"/>
+  <dimension ref="A1:J846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27499,6 +27499,38 @@
         <v>3.506</v>
       </c>
     </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B846" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="C846" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="D846" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="E846" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="F846" t="n">
+        <v>3.673</v>
+      </c>
+      <c r="G846" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="H846" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="I846" t="n">
+        <v>3.493</v>
+      </c>
+      <c r="J846" t="n">
+        <v>3.477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J846"/>
+  <dimension ref="A1:J847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27531,6 +27531,38 @@
         <v>3.477</v>
       </c>
     </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B847" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="C847" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="D847" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="E847" t="n">
+        <v>3.658</v>
+      </c>
+      <c r="F847" t="n">
+        <v>3.683</v>
+      </c>
+      <c r="G847" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="H847" t="n">
+        <v>3.605</v>
+      </c>
+      <c r="I847" t="n">
+        <v>3.504</v>
+      </c>
+      <c r="J847" t="n">
+        <v>3.479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J847"/>
+  <dimension ref="A1:J848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27563,6 +27563,38 @@
         <v>3.479</v>
       </c>
     </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B848" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="C848" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="D848" t="n">
+        <v>3.549</v>
+      </c>
+      <c r="E848" t="n">
+        <v>3.642</v>
+      </c>
+      <c r="F848" t="n">
+        <v>3.658</v>
+      </c>
+      <c r="G848" t="n">
+        <v>3.637</v>
+      </c>
+      <c r="H848" t="n">
+        <v>3.587</v>
+      </c>
+      <c r="I848" t="n">
+        <v>3.483</v>
+      </c>
+      <c r="J848" t="n">
+        <v>3.434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J848"/>
+  <dimension ref="A1:J849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27595,6 +27595,38 @@
         <v>3.434</v>
       </c>
     </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B849" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="C849" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="D849" t="n">
+        <v>3.438</v>
+      </c>
+      <c r="E849" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="F849" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="G849" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="H849" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="I849" t="n">
+        <v>3.324</v>
+      </c>
+      <c r="J849" t="n">
+        <v>3.292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J849"/>
+  <dimension ref="A1:J852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27627,6 +27627,102 @@
         <v>3.292</v>
       </c>
     </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>44744</v>
+      </c>
+      <c r="B850" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="C850" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="D850" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E850" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="F850" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G850" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="H850" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I850" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="J850" t="n">
+        <v>3.292</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B851" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="C851" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="D851" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E851" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="F851" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G851" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="H851" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I851" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="J851" t="n">
+        <v>3.292</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B852" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C852" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D852" t="n">
+        <v>3.445</v>
+      </c>
+      <c r="E852" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F852" t="n">
+        <v>3.504</v>
+      </c>
+      <c r="G852" t="n">
+        <v>3.499</v>
+      </c>
+      <c r="H852" t="n">
+        <v>3.428</v>
+      </c>
+      <c r="I852" t="n">
+        <v>3.308</v>
+      </c>
+      <c r="J852" t="n">
+        <v>3.251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J852"/>
+  <dimension ref="A1:J853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27723,6 +27723,38 @@
         <v>3.251</v>
       </c>
     </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B853" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="C853" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="D853" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="E853" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="F853" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="G853" t="n">
+        <v>3.388</v>
+      </c>
+      <c r="H853" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="I853" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J853" t="n">
+        <v>3.131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J853"/>
+  <dimension ref="A1:J854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27755,6 +27755,38 @@
         <v>3.131</v>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B854" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="C854" t="n">
+        <v>3.268</v>
+      </c>
+      <c r="D854" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="E854" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="F854" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="G854" t="n">
+        <v>3.282</v>
+      </c>
+      <c r="H854" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="I854" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="J854" t="n">
+        <v>3.089</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J854"/>
+  <dimension ref="A1:J855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27787,6 +27787,38 @@
         <v>3.089</v>
       </c>
     </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B855" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="C855" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D855" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="E855" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F855" t="n">
+        <v>3.279</v>
+      </c>
+      <c r="G855" t="n">
+        <v>3.291</v>
+      </c>
+      <c r="H855" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="I855" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J855" t="n">
+        <v>3.089</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J855"/>
+  <dimension ref="A1:J856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27819,6 +27819,38 @@
         <v>3.089</v>
       </c>
     </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B856" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C856" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="D856" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="E856" t="n">
+        <v>3.341</v>
+      </c>
+      <c r="F856" t="n">
+        <v>3.346</v>
+      </c>
+      <c r="G856" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="H856" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="I856" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="J856" t="n">
+        <v>3.133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J856"/>
+  <dimension ref="A1:J858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27851,6 +27851,70 @@
         <v>3.133</v>
       </c>
     </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B857" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C857" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="D857" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="E857" t="n">
+        <v>3.341</v>
+      </c>
+      <c r="F857" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="G857" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H857" t="n">
+        <v>3.278</v>
+      </c>
+      <c r="I857" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J857" t="n">
+        <v>3.133</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B858" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="C858" t="n">
+        <v>3.308</v>
+      </c>
+      <c r="D858" t="n">
+        <v>3.324</v>
+      </c>
+      <c r="E858" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="F858" t="n">
+        <v>3.374</v>
+      </c>
+      <c r="G858" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="H858" t="n">
+        <v>3.304</v>
+      </c>
+      <c r="I858" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="J858" t="n">
+        <v>3.165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J858"/>
+  <dimension ref="A1:J859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27915,6 +27915,38 @@
         <v>3.165</v>
       </c>
     </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B859" t="n">
+        <v>2.985</v>
+      </c>
+      <c r="C859" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="D859" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="E859" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F859" t="n">
+        <v>3.351</v>
+      </c>
+      <c r="G859" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="H859" t="n">
+        <v>3.264</v>
+      </c>
+      <c r="I859" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="J859" t="n">
+        <v>3.103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J859"/>
+  <dimension ref="A1:J860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27947,6 +27947,38 @@
         <v>3.103</v>
       </c>
     </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B860" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="C860" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="D860" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="E860" t="n">
+        <v>3.275</v>
+      </c>
+      <c r="F860" t="n">
+        <v>3.276</v>
+      </c>
+      <c r="G860" t="n">
+        <v>3.303</v>
+      </c>
+      <c r="H860" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="I860" t="n">
+        <v>3.103</v>
+      </c>
+      <c r="J860" t="n">
+        <v>3.048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J860"/>
+  <dimension ref="A1:J861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27979,6 +27979,38 @@
         <v>3.048</v>
       </c>
     </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B861" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="C861" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="D861" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="E861" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F861" t="n">
+        <v>3.322</v>
+      </c>
+      <c r="G861" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="H861" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="I861" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J861" t="n">
+        <v>2.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J861"/>
+  <dimension ref="A1:J862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28011,6 +28011,38 @@
         <v>2.998</v>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B862" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="C862" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="D862" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="E862" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F862" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G862" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="H862" t="n">
+        <v>3.181</v>
+      </c>
+      <c r="I862" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="J862" t="n">
+        <v>2.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J862"/>
+  <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28043,6 +28043,70 @@
         <v>2.998</v>
       </c>
     </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B863" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="C863" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="D863" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="E863" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F863" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="G863" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="H863" t="n">
+        <v>3.153</v>
+      </c>
+      <c r="I863" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="J863" t="n">
+        <v>2.998</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B864" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="C864" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="D864" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="E864" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="F864" t="n">
+        <v>3.275</v>
+      </c>
+      <c r="G864" t="n">
+        <v>3.264</v>
+      </c>
+      <c r="H864" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="I864" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J864" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J864"/>
+  <dimension ref="A1:J866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28107,6 +28107,70 @@
         <v>3.08</v>
       </c>
     </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B865" t="n">
+        <v>2.955</v>
+      </c>
+      <c r="C865" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="D865" t="n">
+        <v>3.204</v>
+      </c>
+      <c r="E865" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F865" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="G865" t="n">
+        <v>3.268</v>
+      </c>
+      <c r="H865" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="I865" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="J865" t="n">
+        <v>3.088</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B866" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="C866" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="D866" t="n">
+        <v>3.298</v>
+      </c>
+      <c r="E866" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="F866" t="n">
+        <v>3.378</v>
+      </c>
+      <c r="G866" t="n">
+        <v>3.363</v>
+      </c>
+      <c r="H866" t="n">
+        <v>3.288</v>
+      </c>
+      <c r="I866" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="J866" t="n">
+        <v>3.158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J866"/>
+  <dimension ref="A1:J867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28171,6 +28171,38 @@
         <v>3.158</v>
       </c>
     </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B867" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="C867" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="D867" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="E867" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="F867" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G867" t="n">
+        <v>3.374</v>
+      </c>
+      <c r="H867" t="n">
+        <v>3.282</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="J867" t="n">
+        <v>3.158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J867"/>
+  <dimension ref="A1:J868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28203,6 +28203,38 @@
         <v>3.158</v>
       </c>
     </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B868" t="n">
+        <v>2.949</v>
+      </c>
+      <c r="C868" t="n">
+        <v>3.201</v>
+      </c>
+      <c r="D868" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="E868" t="n">
+        <v>3.278</v>
+      </c>
+      <c r="F868" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="G868" t="n">
+        <v>3.303</v>
+      </c>
+      <c r="H868" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="J868" t="n">
+        <v>3.117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J868"/>
+  <dimension ref="A1:J871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23533,188 +23533,188 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44613</v>
+        <v>44610</v>
       </c>
       <c r="B722" t="n">
         <v>1.497</v>
       </c>
       <c r="C722" t="n">
-        <v>2.159</v>
+        <v>2.14</v>
       </c>
       <c r="D722" t="n">
-        <v>2.368</v>
+        <v>2.323</v>
       </c>
       <c r="E722" t="n">
-        <v>2.545</v>
+        <v>2.505</v>
       </c>
       <c r="F722" t="n">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="G722" t="n">
-        <v>2.774</v>
+        <v>2.728</v>
       </c>
       <c r="H722" t="n">
-        <v>2.771</v>
+        <v>2.725</v>
       </c>
       <c r="I722" t="n">
-        <v>2.688</v>
+        <v>2.645</v>
       </c>
       <c r="J722" t="n">
-        <v>2.674</v>
+        <v>2.641</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B723" t="n">
-        <v>1.501</v>
+        <v>1.497</v>
       </c>
       <c r="C723" t="n">
-        <v>2.107</v>
+        <v>2.159</v>
       </c>
       <c r="D723" t="n">
-        <v>2.327</v>
+        <v>2.368</v>
       </c>
       <c r="E723" t="n">
-        <v>2.515</v>
+        <v>2.545</v>
       </c>
       <c r="F723" t="n">
-        <v>2.524</v>
+        <v>2.57</v>
       </c>
       <c r="G723" t="n">
-        <v>2.717</v>
+        <v>2.774</v>
       </c>
       <c r="H723" t="n">
-        <v>2.713</v>
+        <v>2.771</v>
       </c>
       <c r="I723" t="n">
-        <v>2.629</v>
+        <v>2.688</v>
       </c>
       <c r="J723" t="n">
-        <v>2.621</v>
+        <v>2.674</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B724" t="n">
-        <v>1.503</v>
+        <v>1.501</v>
       </c>
       <c r="C724" t="n">
-        <v>2.094</v>
+        <v>2.107</v>
       </c>
       <c r="D724" t="n">
-        <v>2.32</v>
+        <v>2.327</v>
       </c>
       <c r="E724" t="n">
-        <v>2.512</v>
+        <v>2.515</v>
       </c>
       <c r="F724" t="n">
-        <v>2.523</v>
+        <v>2.524</v>
       </c>
       <c r="G724" t="n">
-        <v>2.724</v>
+        <v>2.717</v>
       </c>
       <c r="H724" t="n">
-        <v>2.712</v>
+        <v>2.713</v>
       </c>
       <c r="I724" t="n">
         <v>2.629</v>
       </c>
       <c r="J724" t="n">
-        <v>2.619</v>
+        <v>2.621</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B725" t="n">
-        <v>1.49</v>
+        <v>1.503</v>
       </c>
       <c r="C725" t="n">
-        <v>2.018</v>
+        <v>2.094</v>
       </c>
       <c r="D725" t="n">
-        <v>2.225</v>
+        <v>2.32</v>
       </c>
       <c r="E725" t="n">
-        <v>2.414</v>
+        <v>2.512</v>
       </c>
       <c r="F725" t="n">
-        <v>2.422</v>
+        <v>2.523</v>
       </c>
       <c r="G725" t="n">
-        <v>2.622</v>
+        <v>2.724</v>
       </c>
       <c r="H725" t="n">
-        <v>2.621</v>
+        <v>2.712</v>
       </c>
       <c r="I725" t="n">
-        <v>2.552</v>
+        <v>2.629</v>
       </c>
       <c r="J725" t="n">
-        <v>2.556</v>
+        <v>2.619</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B726" t="n">
-        <v>1.501</v>
+        <v>1.49</v>
       </c>
       <c r="C726" t="n">
-        <v>2.024</v>
+        <v>2.018</v>
       </c>
       <c r="D726" t="n">
-        <v>2.244</v>
+        <v>2.225</v>
       </c>
       <c r="E726" t="n">
-        <v>2.45</v>
+        <v>2.414</v>
       </c>
       <c r="F726" t="n">
-        <v>2.468</v>
+        <v>2.422</v>
       </c>
       <c r="G726" t="n">
-        <v>2.671</v>
+        <v>2.622</v>
       </c>
       <c r="H726" t="n">
-        <v>2.693</v>
+        <v>2.621</v>
       </c>
       <c r="I726" t="n">
-        <v>2.62</v>
+        <v>2.552</v>
       </c>
       <c r="J726" t="n">
-        <v>2.609</v>
+        <v>2.556</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B727" t="n">
         <v>1.501</v>
       </c>
       <c r="C727" t="n">
-        <v>2.005</v>
+        <v>2.024</v>
       </c>
       <c r="D727" t="n">
-        <v>2.242</v>
+        <v>2.244</v>
       </c>
       <c r="E727" t="n">
         <v>2.45</v>
       </c>
       <c r="F727" t="n">
-        <v>2.467</v>
+        <v>2.468</v>
       </c>
       <c r="G727" t="n">
-        <v>2.667</v>
+        <v>2.671</v>
       </c>
       <c r="H727" t="n">
-        <v>2.69</v>
+        <v>2.693</v>
       </c>
       <c r="I727" t="n">
         <v>2.62</v>
@@ -23725,7 +23725,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B728" t="n">
         <v>1.501</v>
@@ -23757,63 +23757,63 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B729" t="n">
-        <v>1.496</v>
+        <v>1.501</v>
       </c>
       <c r="C729" t="n">
-        <v>1.991</v>
+        <v>2.005</v>
       </c>
       <c r="D729" t="n">
         <v>2.242</v>
       </c>
       <c r="E729" t="n">
-        <v>2.445</v>
+        <v>2.45</v>
       </c>
       <c r="F729" t="n">
-        <v>2.468</v>
+        <v>2.467</v>
       </c>
       <c r="G729" t="n">
-        <v>2.675</v>
+        <v>2.667</v>
       </c>
       <c r="H729" t="n">
-        <v>2.695</v>
+        <v>2.69</v>
       </c>
       <c r="I729" t="n">
-        <v>2.632</v>
+        <v>2.62</v>
       </c>
       <c r="J729" t="n">
-        <v>2.624</v>
+        <v>2.609</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B730" t="n">
         <v>1.496</v>
       </c>
       <c r="C730" t="n">
-        <v>1.99</v>
+        <v>1.991</v>
       </c>
       <c r="D730" t="n">
-        <v>2.245</v>
+        <v>2.242</v>
       </c>
       <c r="E730" t="n">
         <v>2.445</v>
       </c>
       <c r="F730" t="n">
-        <v>2.47</v>
+        <v>2.468</v>
       </c>
       <c r="G730" t="n">
-        <v>2.685</v>
+        <v>2.675</v>
       </c>
       <c r="H730" t="n">
         <v>2.695</v>
       </c>
       <c r="I730" t="n">
-        <v>2.635</v>
+        <v>2.632</v>
       </c>
       <c r="J730" t="n">
         <v>2.624</v>
@@ -23821,127 +23821,127 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B731" t="n">
-        <v>1.487</v>
+        <v>1.496</v>
       </c>
       <c r="C731" t="n">
-        <v>1.958</v>
+        <v>1.99</v>
       </c>
       <c r="D731" t="n">
-        <v>2.187</v>
+        <v>2.245</v>
       </c>
       <c r="E731" t="n">
-        <v>2.377</v>
+        <v>2.445</v>
       </c>
       <c r="F731" t="n">
-        <v>2.406</v>
+        <v>2.47</v>
       </c>
       <c r="G731" t="n">
-        <v>2.613</v>
+        <v>2.685</v>
       </c>
       <c r="H731" t="n">
-        <v>2.65</v>
+        <v>2.695</v>
       </c>
       <c r="I731" t="n">
-        <v>2.584</v>
+        <v>2.635</v>
       </c>
       <c r="J731" t="n">
-        <v>2.579</v>
+        <v>2.624</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B732" t="n">
-        <v>1.49</v>
+        <v>1.487</v>
       </c>
       <c r="C732" t="n">
-        <v>1.957</v>
+        <v>1.958</v>
       </c>
       <c r="D732" t="n">
-        <v>2.193</v>
+        <v>2.187</v>
       </c>
       <c r="E732" t="n">
-        <v>2.43</v>
+        <v>2.377</v>
       </c>
       <c r="F732" t="n">
-        <v>2.433</v>
+        <v>2.406</v>
       </c>
       <c r="G732" t="n">
-        <v>2.647</v>
+        <v>2.613</v>
       </c>
       <c r="H732" t="n">
-        <v>2.681</v>
+        <v>2.65</v>
       </c>
       <c r="I732" t="n">
-        <v>2.625</v>
+        <v>2.584</v>
       </c>
       <c r="J732" t="n">
-        <v>2.644</v>
+        <v>2.579</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B733" t="n">
-        <v>1.456</v>
+        <v>1.49</v>
       </c>
       <c r="C733" t="n">
-        <v>1.958</v>
+        <v>1.957</v>
       </c>
       <c r="D733" t="n">
-        <v>2.216</v>
+        <v>2.193</v>
       </c>
       <c r="E733" t="n">
-        <v>2.414</v>
+        <v>2.43</v>
       </c>
       <c r="F733" t="n">
-        <v>2.464</v>
+        <v>2.433</v>
       </c>
       <c r="G733" t="n">
-        <v>2.662</v>
+        <v>2.647</v>
       </c>
       <c r="H733" t="n">
-        <v>2.704</v>
+        <v>2.681</v>
       </c>
       <c r="I733" t="n">
-        <v>2.643</v>
+        <v>2.625</v>
       </c>
       <c r="J733" t="n">
-        <v>2.621</v>
+        <v>2.644</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B734" t="n">
         <v>1.456</v>
       </c>
       <c r="C734" t="n">
-        <v>1.94</v>
+        <v>1.958</v>
       </c>
       <c r="D734" t="n">
-        <v>2.2</v>
+        <v>2.216</v>
       </c>
       <c r="E734" t="n">
         <v>2.414</v>
       </c>
       <c r="F734" t="n">
-        <v>2.452</v>
+        <v>2.464</v>
       </c>
       <c r="G734" t="n">
-        <v>2.647</v>
+        <v>2.662</v>
       </c>
       <c r="H734" t="n">
-        <v>2.695</v>
+        <v>2.704</v>
       </c>
       <c r="I734" t="n">
-        <v>2.632</v>
+        <v>2.643</v>
       </c>
       <c r="J734" t="n">
         <v>2.621</v>
@@ -23949,7 +23949,7 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B735" t="n">
         <v>1.456</v>
@@ -23981,95 +23981,95 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B736" t="n">
-        <v>1.426</v>
+        <v>1.456</v>
       </c>
       <c r="C736" t="n">
-        <v>2.055</v>
+        <v>1.94</v>
       </c>
       <c r="D736" t="n">
-        <v>2.289</v>
+        <v>2.2</v>
       </c>
       <c r="E736" t="n">
-        <v>2.471</v>
+        <v>2.414</v>
       </c>
       <c r="F736" t="n">
-        <v>2.528</v>
+        <v>2.452</v>
       </c>
       <c r="G736" t="n">
-        <v>2.707</v>
+        <v>2.647</v>
       </c>
       <c r="H736" t="n">
-        <v>2.697</v>
+        <v>2.695</v>
       </c>
       <c r="I736" t="n">
-        <v>2.627</v>
+        <v>2.632</v>
       </c>
       <c r="J736" t="n">
-        <v>2.611</v>
+        <v>2.621</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B737" t="n">
-        <v>1.413</v>
+        <v>1.426</v>
       </c>
       <c r="C737" t="n">
-        <v>2.031</v>
+        <v>2.055</v>
       </c>
       <c r="D737" t="n">
-        <v>2.287</v>
+        <v>2.289</v>
       </c>
       <c r="E737" t="n">
-        <v>2.468</v>
+        <v>2.471</v>
       </c>
       <c r="F737" t="n">
-        <v>2.523</v>
+        <v>2.528</v>
       </c>
       <c r="G737" t="n">
-        <v>2.722</v>
+        <v>2.707</v>
       </c>
       <c r="H737" t="n">
-        <v>2.705</v>
+        <v>2.697</v>
       </c>
       <c r="I737" t="n">
-        <v>2.633</v>
+        <v>2.627</v>
       </c>
       <c r="J737" t="n">
-        <v>2.622</v>
+        <v>2.611</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B738" t="n">
         <v>1.413</v>
       </c>
       <c r="C738" t="n">
-        <v>2.099</v>
+        <v>2.031</v>
       </c>
       <c r="D738" t="n">
-        <v>2.28</v>
+        <v>2.287</v>
       </c>
       <c r="E738" t="n">
         <v>2.468</v>
       </c>
       <c r="F738" t="n">
-        <v>2.516</v>
+        <v>2.523</v>
       </c>
       <c r="G738" t="n">
-        <v>2.717</v>
+        <v>2.722</v>
       </c>
       <c r="H738" t="n">
-        <v>2.7</v>
+        <v>2.705</v>
       </c>
       <c r="I738" t="n">
-        <v>2.635</v>
+        <v>2.633</v>
       </c>
       <c r="J738" t="n">
         <v>2.622</v>
@@ -24077,95 +24077,95 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B739" t="n">
-        <v>1.398</v>
+        <v>1.413</v>
       </c>
       <c r="C739" t="n">
-        <v>2.102</v>
+        <v>2.099</v>
       </c>
       <c r="D739" t="n">
-        <v>2.267</v>
+        <v>2.28</v>
       </c>
       <c r="E739" t="n">
-        <v>2.462</v>
+        <v>2.468</v>
       </c>
       <c r="F739" t="n">
         <v>2.516</v>
       </c>
       <c r="G739" t="n">
-        <v>2.726</v>
+        <v>2.717</v>
       </c>
       <c r="H739" t="n">
-        <v>2.705</v>
+        <v>2.7</v>
       </c>
       <c r="I739" t="n">
-        <v>2.633</v>
+        <v>2.635</v>
       </c>
       <c r="J739" t="n">
-        <v>2.617</v>
+        <v>2.622</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B740" t="n">
-        <v>1.391</v>
+        <v>1.398</v>
       </c>
       <c r="C740" t="n">
-        <v>2.062</v>
+        <v>2.102</v>
       </c>
       <c r="D740" t="n">
-        <v>2.257</v>
+        <v>2.267</v>
       </c>
       <c r="E740" t="n">
-        <v>2.432</v>
+        <v>2.462</v>
       </c>
       <c r="F740" t="n">
-        <v>2.485</v>
+        <v>2.516</v>
       </c>
       <c r="G740" t="n">
-        <v>2.7</v>
+        <v>2.726</v>
       </c>
       <c r="H740" t="n">
-        <v>2.697</v>
+        <v>2.705</v>
       </c>
       <c r="I740" t="n">
-        <v>2.619</v>
+        <v>2.633</v>
       </c>
       <c r="J740" t="n">
-        <v>2.604</v>
+        <v>2.617</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B741" t="n">
         <v>1.391</v>
       </c>
       <c r="C741" t="n">
-        <v>2.04</v>
+        <v>2.062</v>
       </c>
       <c r="D741" t="n">
-        <v>2.247</v>
+        <v>2.257</v>
       </c>
       <c r="E741" t="n">
         <v>2.432</v>
       </c>
       <c r="F741" t="n">
-        <v>2.48</v>
+        <v>2.485</v>
       </c>
       <c r="G741" t="n">
-        <v>2.695</v>
+        <v>2.7</v>
       </c>
       <c r="H741" t="n">
-        <v>2.694</v>
+        <v>2.697</v>
       </c>
       <c r="I741" t="n">
-        <v>2.617</v>
+        <v>2.619</v>
       </c>
       <c r="J741" t="n">
         <v>2.604</v>
@@ -24173,7 +24173,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B742" t="n">
         <v>1.391</v>
@@ -24205,188 +24205,188 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B743" t="n">
-        <v>1.39</v>
+        <v>1.391</v>
       </c>
       <c r="C743" t="n">
-        <v>2.059</v>
+        <v>2.04</v>
       </c>
       <c r="D743" t="n">
-        <v>2.284</v>
+        <v>2.247</v>
       </c>
       <c r="E743" t="n">
-        <v>2.47</v>
+        <v>2.432</v>
       </c>
       <c r="F743" t="n">
-        <v>2.526</v>
+        <v>2.48</v>
       </c>
       <c r="G743" t="n">
-        <v>2.738</v>
+        <v>2.695</v>
       </c>
       <c r="H743" t="n">
-        <v>2.73</v>
+        <v>2.694</v>
       </c>
       <c r="I743" t="n">
-        <v>2.646</v>
+        <v>2.617</v>
       </c>
       <c r="J743" t="n">
-        <v>2.634</v>
+        <v>2.604</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B744" t="n">
-        <v>1.386</v>
+        <v>1.39</v>
       </c>
       <c r="C744" t="n">
-        <v>2.074</v>
+        <v>2.059</v>
       </c>
       <c r="D744" t="n">
-        <v>2.288</v>
+        <v>2.284</v>
       </c>
       <c r="E744" t="n">
-        <v>2.477</v>
+        <v>2.47</v>
       </c>
       <c r="F744" t="n">
-        <v>2.535</v>
+        <v>2.526</v>
       </c>
       <c r="G744" t="n">
-        <v>2.759</v>
+        <v>2.738</v>
       </c>
       <c r="H744" t="n">
-        <v>2.759</v>
+        <v>2.73</v>
       </c>
       <c r="I744" t="n">
-        <v>2.666</v>
+        <v>2.646</v>
       </c>
       <c r="J744" t="n">
-        <v>2.649</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B745" t="n">
-        <v>1.385</v>
+        <v>1.386</v>
       </c>
       <c r="C745" t="n">
-        <v>2.045</v>
+        <v>2.074</v>
       </c>
       <c r="D745" t="n">
-        <v>2.27</v>
+        <v>2.288</v>
       </c>
       <c r="E745" t="n">
-        <v>2.47</v>
+        <v>2.477</v>
       </c>
       <c r="F745" t="n">
-        <v>2.526</v>
+        <v>2.535</v>
       </c>
       <c r="G745" t="n">
-        <v>2.765</v>
+        <v>2.759</v>
       </c>
       <c r="H745" t="n">
         <v>2.759</v>
       </c>
       <c r="I745" t="n">
-        <v>2.679</v>
+        <v>2.666</v>
       </c>
       <c r="J745" t="n">
-        <v>2.673</v>
+        <v>2.649</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B746" t="n">
-        <v>1.382</v>
+        <v>1.385</v>
       </c>
       <c r="C746" t="n">
-        <v>2.009</v>
+        <v>2.045</v>
       </c>
       <c r="D746" t="n">
-        <v>2.217</v>
+        <v>2.27</v>
       </c>
       <c r="E746" t="n">
-        <v>2.417</v>
+        <v>2.47</v>
       </c>
       <c r="F746" t="n">
-        <v>2.469</v>
+        <v>2.526</v>
       </c>
       <c r="G746" t="n">
-        <v>2.704</v>
+        <v>2.765</v>
       </c>
       <c r="H746" t="n">
-        <v>2.724</v>
+        <v>2.759</v>
       </c>
       <c r="I746" t="n">
-        <v>2.647</v>
+        <v>2.679</v>
       </c>
       <c r="J746" t="n">
-        <v>2.639</v>
+        <v>2.673</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B747" t="n">
-        <v>1.387</v>
+        <v>1.382</v>
       </c>
       <c r="C747" t="n">
-        <v>2.034</v>
+        <v>2.009</v>
       </c>
       <c r="D747" t="n">
-        <v>2.231</v>
+        <v>2.217</v>
       </c>
       <c r="E747" t="n">
-        <v>2.44</v>
+        <v>2.417</v>
       </c>
       <c r="F747" t="n">
-        <v>2.495</v>
+        <v>2.469</v>
       </c>
       <c r="G747" t="n">
-        <v>2.737</v>
+        <v>2.704</v>
       </c>
       <c r="H747" t="n">
-        <v>2.748</v>
+        <v>2.724</v>
       </c>
       <c r="I747" t="n">
-        <v>2.675</v>
+        <v>2.647</v>
       </c>
       <c r="J747" t="n">
-        <v>2.655</v>
+        <v>2.639</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44640</v>
+        <v>44638</v>
       </c>
       <c r="B748" t="n">
         <v>1.387</v>
       </c>
       <c r="C748" t="n">
-        <v>2.032</v>
+        <v>2.034</v>
       </c>
       <c r="D748" t="n">
-        <v>2.227</v>
+        <v>2.231</v>
       </c>
       <c r="E748" t="n">
         <v>2.44</v>
       </c>
       <c r="F748" t="n">
-        <v>2.496</v>
+        <v>2.495</v>
       </c>
       <c r="G748" t="n">
-        <v>2.731</v>
+        <v>2.737</v>
       </c>
       <c r="H748" t="n">
-        <v>2.745</v>
+        <v>2.748</v>
       </c>
       <c r="I748" t="n">
         <v>2.675</v>
@@ -24397,191 +24397,191 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B749" t="n">
-        <v>1.396</v>
+        <v>1.387</v>
       </c>
       <c r="C749" t="n">
-        <v>2.071</v>
+        <v>2.032</v>
       </c>
       <c r="D749" t="n">
-        <v>2.268</v>
+        <v>2.227</v>
       </c>
       <c r="E749" t="n">
-        <v>2.475</v>
+        <v>2.44</v>
       </c>
       <c r="F749" t="n">
-        <v>2.53</v>
+        <v>2.496</v>
       </c>
       <c r="G749" t="n">
-        <v>2.741</v>
+        <v>2.731</v>
       </c>
       <c r="H749" t="n">
-        <v>2.753</v>
+        <v>2.745</v>
       </c>
       <c r="I749" t="n">
-        <v>2.676</v>
+        <v>2.675</v>
       </c>
       <c r="J749" t="n">
-        <v>2.657</v>
+        <v>2.655</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="B750" t="n">
-        <v>1.429</v>
+        <v>1.396</v>
       </c>
       <c r="C750" t="n">
-        <v>2.156</v>
+        <v>2.071</v>
       </c>
       <c r="D750" t="n">
-        <v>2.399</v>
+        <v>2.268</v>
       </c>
       <c r="E750" t="n">
-        <v>2.6</v>
+        <v>2.475</v>
       </c>
       <c r="F750" t="n">
-        <v>2.631</v>
+        <v>2.53</v>
       </c>
       <c r="G750" t="n">
-        <v>2.833</v>
+        <v>2.741</v>
       </c>
       <c r="H750" t="n">
-        <v>2.809</v>
+        <v>2.753</v>
       </c>
       <c r="I750" t="n">
-        <v>2.715</v>
+        <v>2.676</v>
       </c>
       <c r="J750" t="n">
-        <v>2.692</v>
+        <v>2.657</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B751" t="n">
-        <v>1.452</v>
+        <v>1.429</v>
       </c>
       <c r="C751" t="n">
-        <v>2.17</v>
+        <v>2.156</v>
       </c>
       <c r="D751" t="n">
-        <v>2.427</v>
+        <v>2.399</v>
       </c>
       <c r="E751" t="n">
         <v>2.6</v>
       </c>
       <c r="F751" t="n">
-        <v>2.646</v>
+        <v>2.631</v>
       </c>
       <c r="G751" t="n">
-        <v>2.832</v>
+        <v>2.833</v>
       </c>
       <c r="H751" t="n">
-        <v>2.811</v>
+        <v>2.809</v>
       </c>
       <c r="I751" t="n">
-        <v>2.7</v>
+        <v>2.715</v>
       </c>
       <c r="J751" t="n">
-        <v>2.68</v>
+        <v>2.692</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B752" t="n">
-        <v>1.485</v>
+        <v>1.452</v>
       </c>
       <c r="C752" t="n">
-        <v>2.177</v>
+        <v>2.17</v>
       </c>
       <c r="D752" t="n">
-        <v>2.453</v>
+        <v>2.427</v>
       </c>
       <c r="E752" t="n">
-        <v>2.645</v>
+        <v>2.6</v>
       </c>
       <c r="F752" t="n">
-        <v>2.661</v>
+        <v>2.646</v>
       </c>
       <c r="G752" t="n">
-        <v>2.855</v>
+        <v>2.832</v>
       </c>
       <c r="H752" t="n">
-        <v>2.833</v>
+        <v>2.811</v>
       </c>
       <c r="I752" t="n">
-        <v>2.741</v>
+        <v>2.7</v>
       </c>
       <c r="J752" t="n">
-        <v>2.725</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B753" t="n">
-        <v>1.564</v>
+        <v>1.485</v>
       </c>
       <c r="C753" t="n">
-        <v>2.221</v>
+        <v>2.177</v>
       </c>
       <c r="D753" t="n">
-        <v>2.503</v>
+        <v>2.453</v>
       </c>
       <c r="E753" t="n">
-        <v>2.697</v>
+        <v>2.645</v>
       </c>
       <c r="F753" t="n">
-        <v>2.709</v>
+        <v>2.661</v>
       </c>
       <c r="G753" t="n">
-        <v>2.868</v>
+        <v>2.855</v>
       </c>
       <c r="H753" t="n">
-        <v>2.866</v>
+        <v>2.833</v>
       </c>
       <c r="I753" t="n">
-        <v>2.766</v>
+        <v>2.741</v>
       </c>
       <c r="J753" t="n">
-        <v>2.757</v>
+        <v>2.725</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44646</v>
+        <v>44645</v>
       </c>
       <c r="B754" t="n">
         <v>1.564</v>
       </c>
       <c r="C754" t="n">
-        <v>2.218</v>
+        <v>2.221</v>
       </c>
       <c r="D754" t="n">
-        <v>2.515</v>
+        <v>2.503</v>
       </c>
       <c r="E754" t="n">
         <v>2.697</v>
       </c>
       <c r="F754" t="n">
-        <v>2.727</v>
+        <v>2.709</v>
       </c>
       <c r="G754" t="n">
-        <v>2.877</v>
+        <v>2.868</v>
       </c>
       <c r="H754" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="I754" t="n">
-        <v>2.777</v>
+        <v>2.766</v>
       </c>
       <c r="J754" t="n">
         <v>2.757</v>
@@ -24589,7 +24589,7 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44647</v>
+        <v>44646</v>
       </c>
       <c r="B755" t="n">
         <v>1.564</v>
@@ -24621,191 +24621,191 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B756" t="n">
-        <v>1.66</v>
+        <v>1.564</v>
       </c>
       <c r="C756" t="n">
-        <v>2.45</v>
+        <v>2.218</v>
       </c>
       <c r="D756" t="n">
-        <v>2.742</v>
+        <v>2.515</v>
       </c>
       <c r="E756" t="n">
-        <v>2.955</v>
+        <v>2.697</v>
       </c>
       <c r="F756" t="n">
-        <v>2.97</v>
+        <v>2.727</v>
       </c>
       <c r="G756" t="n">
-        <v>3.028</v>
+        <v>2.877</v>
       </c>
       <c r="H756" t="n">
-        <v>3.008</v>
+        <v>2.87</v>
       </c>
       <c r="I756" t="n">
-        <v>2.888</v>
+        <v>2.777</v>
       </c>
       <c r="J756" t="n">
-        <v>2.88</v>
+        <v>2.757</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B757" t="n">
-        <v>1.654</v>
+        <v>1.66</v>
       </c>
       <c r="C757" t="n">
-        <v>2.407</v>
+        <v>2.45</v>
       </c>
       <c r="D757" t="n">
-        <v>2.702</v>
+        <v>2.742</v>
       </c>
       <c r="E757" t="n">
-        <v>2.86</v>
+        <v>2.955</v>
       </c>
       <c r="F757" t="n">
-        <v>2.893</v>
+        <v>2.97</v>
       </c>
       <c r="G757" t="n">
-        <v>2.972</v>
+        <v>3.028</v>
       </c>
       <c r="H757" t="n">
-        <v>2.97</v>
+        <v>3.008</v>
       </c>
       <c r="I757" t="n">
-        <v>2.836</v>
+        <v>2.888</v>
       </c>
       <c r="J757" t="n">
-        <v>2.809</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B758" t="n">
-        <v>1.652</v>
+        <v>1.654</v>
       </c>
       <c r="C758" t="n">
-        <v>2.352</v>
+        <v>2.407</v>
       </c>
       <c r="D758" t="n">
-        <v>2.614</v>
+        <v>2.702</v>
       </c>
       <c r="E758" t="n">
-        <v>2.787</v>
+        <v>2.86</v>
       </c>
       <c r="F758" t="n">
-        <v>2.801</v>
+        <v>2.893</v>
       </c>
       <c r="G758" t="n">
-        <v>2.885</v>
+        <v>2.972</v>
       </c>
       <c r="H758" t="n">
-        <v>2.881</v>
+        <v>2.97</v>
       </c>
       <c r="I758" t="n">
-        <v>2.737</v>
+        <v>2.836</v>
       </c>
       <c r="J758" t="n">
-        <v>2.74</v>
+        <v>2.809</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B759" t="n">
-        <v>1.675</v>
+        <v>1.652</v>
       </c>
       <c r="C759" t="n">
-        <v>2.371</v>
+        <v>2.352</v>
       </c>
       <c r="D759" t="n">
-        <v>2.664</v>
+        <v>2.614</v>
       </c>
       <c r="E759" t="n">
-        <v>2.83</v>
+        <v>2.787</v>
       </c>
       <c r="F759" t="n">
-        <v>2.856</v>
+        <v>2.801</v>
       </c>
       <c r="G759" t="n">
-        <v>2.969</v>
+        <v>2.885</v>
       </c>
       <c r="H759" t="n">
-        <v>2.954</v>
+        <v>2.881</v>
       </c>
       <c r="I759" t="n">
-        <v>2.81</v>
+        <v>2.737</v>
       </c>
       <c r="J759" t="n">
-        <v>2.817</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B760" t="n">
-        <v>1.932</v>
+        <v>1.675</v>
       </c>
       <c r="C760" t="n">
-        <v>2.483</v>
+        <v>2.371</v>
       </c>
       <c r="D760" t="n">
-        <v>2.783</v>
+        <v>2.664</v>
       </c>
       <c r="E760" t="n">
-        <v>2.915</v>
+        <v>2.83</v>
       </c>
       <c r="F760" t="n">
-        <v>2.943</v>
+        <v>2.856</v>
       </c>
       <c r="G760" t="n">
-        <v>3.007</v>
+        <v>2.969</v>
       </c>
       <c r="H760" t="n">
-        <v>2.979</v>
+        <v>2.954</v>
       </c>
       <c r="I760" t="n">
-        <v>2.881</v>
+        <v>2.81</v>
       </c>
       <c r="J760" t="n">
-        <v>2.87</v>
+        <v>2.817</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B761" t="n">
         <v>1.932</v>
       </c>
       <c r="C761" t="n">
-        <v>2.48</v>
+        <v>2.483</v>
       </c>
       <c r="D761" t="n">
-        <v>2.782</v>
+        <v>2.783</v>
       </c>
       <c r="E761" t="n">
         <v>2.915</v>
       </c>
       <c r="F761" t="n">
-        <v>2.939</v>
+        <v>2.943</v>
       </c>
       <c r="G761" t="n">
-        <v>3.005</v>
+        <v>3.007</v>
       </c>
       <c r="H761" t="n">
-        <v>2.992</v>
+        <v>2.979</v>
       </c>
       <c r="I761" t="n">
-        <v>2.89</v>
+        <v>2.881</v>
       </c>
       <c r="J761" t="n">
         <v>2.87</v>
@@ -24813,7 +24813,7 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B762" t="n">
         <v>1.932</v>
@@ -24845,191 +24845,191 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44655</v>
+        <v>44654</v>
       </c>
       <c r="B763" t="n">
-        <v>1.975</v>
+        <v>1.932</v>
       </c>
       <c r="C763" t="n">
-        <v>2.585</v>
+        <v>2.48</v>
       </c>
       <c r="D763" t="n">
-        <v>2.841</v>
+        <v>2.782</v>
       </c>
       <c r="E763" t="n">
-        <v>2.945</v>
+        <v>2.915</v>
       </c>
       <c r="F763" t="n">
-        <v>3.019</v>
+        <v>2.939</v>
       </c>
       <c r="G763" t="n">
-        <v>3.072</v>
+        <v>3.005</v>
       </c>
       <c r="H763" t="n">
-        <v>3.05</v>
+        <v>2.992</v>
       </c>
       <c r="I763" t="n">
-        <v>3.018</v>
+        <v>2.89</v>
       </c>
       <c r="J763" t="n">
-        <v>3.007</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B764" t="n">
-        <v>2.031</v>
+        <v>1.975</v>
       </c>
       <c r="C764" t="n">
-        <v>2.629</v>
+        <v>2.585</v>
       </c>
       <c r="D764" t="n">
-        <v>2.877</v>
+        <v>2.841</v>
       </c>
       <c r="E764" t="n">
-        <v>3.017</v>
+        <v>2.945</v>
       </c>
       <c r="F764" t="n">
-        <v>3.027</v>
+        <v>3.019</v>
       </c>
       <c r="G764" t="n">
-        <v>3.08</v>
+        <v>3.072</v>
       </c>
       <c r="H764" t="n">
-        <v>3.078</v>
+        <v>3.05</v>
       </c>
       <c r="I764" t="n">
-        <v>3.035</v>
+        <v>3.018</v>
       </c>
       <c r="J764" t="n">
-        <v>3.015</v>
+        <v>3.007</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B765" t="n">
-        <v>2.126</v>
+        <v>2.031</v>
       </c>
       <c r="C765" t="n">
-        <v>2.748</v>
+        <v>2.629</v>
       </c>
       <c r="D765" t="n">
-        <v>2.941</v>
+        <v>2.877</v>
       </c>
       <c r="E765" t="n">
-        <v>3.052</v>
+        <v>3.017</v>
       </c>
       <c r="F765" t="n">
-        <v>3.099</v>
+        <v>3.027</v>
       </c>
       <c r="G765" t="n">
-        <v>3.134</v>
+        <v>3.08</v>
       </c>
       <c r="H765" t="n">
-        <v>3.119</v>
+        <v>3.078</v>
       </c>
       <c r="I765" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="J765" t="n">
-        <v>3.024</v>
+        <v>3.015</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B766" t="n">
-        <v>2.173</v>
+        <v>2.126</v>
       </c>
       <c r="C766" t="n">
-        <v>2.719</v>
+        <v>2.748</v>
       </c>
       <c r="D766" t="n">
-        <v>2.908</v>
+        <v>2.941</v>
       </c>
       <c r="E766" t="n">
-        <v>3.013</v>
+        <v>3.052</v>
       </c>
       <c r="F766" t="n">
-        <v>3.048</v>
+        <v>3.099</v>
       </c>
       <c r="G766" t="n">
-        <v>3.132</v>
+        <v>3.134</v>
       </c>
       <c r="H766" t="n">
-        <v>3.13</v>
+        <v>3.119</v>
       </c>
       <c r="I766" t="n">
         <v>3.05</v>
       </c>
       <c r="J766" t="n">
-        <v>3.027</v>
+        <v>3.024</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B767" t="n">
-        <v>2.3</v>
+        <v>2.173</v>
       </c>
       <c r="C767" t="n">
-        <v>2.804</v>
+        <v>2.719</v>
       </c>
       <c r="D767" t="n">
-        <v>2.985</v>
+        <v>2.908</v>
       </c>
       <c r="E767" t="n">
-        <v>3.105</v>
+        <v>3.013</v>
       </c>
       <c r="F767" t="n">
-        <v>3.115</v>
+        <v>3.048</v>
       </c>
       <c r="G767" t="n">
-        <v>3.167</v>
+        <v>3.132</v>
       </c>
       <c r="H767" t="n">
-        <v>3.133</v>
+        <v>3.13</v>
       </c>
       <c r="I767" t="n">
-        <v>3.051</v>
+        <v>3.05</v>
       </c>
       <c r="J767" t="n">
-        <v>3.04</v>
+        <v>3.027</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="B768" t="n">
         <v>2.3</v>
       </c>
       <c r="C768" t="n">
-        <v>2.8</v>
+        <v>2.804</v>
       </c>
       <c r="D768" t="n">
-        <v>3</v>
+        <v>2.985</v>
       </c>
       <c r="E768" t="n">
         <v>3.105</v>
       </c>
       <c r="F768" t="n">
-        <v>3.12</v>
+        <v>3.115</v>
       </c>
       <c r="G768" t="n">
-        <v>3.181</v>
+        <v>3.167</v>
       </c>
       <c r="H768" t="n">
-        <v>3.15</v>
+        <v>3.133</v>
       </c>
       <c r="I768" t="n">
-        <v>3.06</v>
+        <v>3.051</v>
       </c>
       <c r="J768" t="n">
         <v>3.04</v>
@@ -25037,7 +25037,7 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44661</v>
+        <v>44660</v>
       </c>
       <c r="B769" t="n">
         <v>2.3</v>
@@ -25069,191 +25069,191 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="B770" t="n">
-        <v>2.435</v>
+        <v>2.3</v>
       </c>
       <c r="C770" t="n">
-        <v>2.981</v>
+        <v>2.8</v>
       </c>
       <c r="D770" t="n">
-        <v>3.177</v>
+        <v>3</v>
       </c>
       <c r="E770" t="n">
-        <v>3.325</v>
+        <v>3.105</v>
       </c>
       <c r="F770" t="n">
-        <v>3.297</v>
+        <v>3.12</v>
       </c>
       <c r="G770" t="n">
-        <v>3.298</v>
+        <v>3.181</v>
       </c>
       <c r="H770" t="n">
-        <v>3.252</v>
+        <v>3.15</v>
       </c>
       <c r="I770" t="n">
-        <v>3.139</v>
+        <v>3.06</v>
       </c>
       <c r="J770" t="n">
-        <v>3.145</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B771" t="n">
-        <v>2.405</v>
+        <v>2.435</v>
       </c>
       <c r="C771" t="n">
-        <v>2.995</v>
+        <v>2.981</v>
       </c>
       <c r="D771" t="n">
-        <v>3.106</v>
+        <v>3.177</v>
       </c>
       <c r="E771" t="n">
-        <v>3.235</v>
+        <v>3.325</v>
       </c>
       <c r="F771" t="n">
-        <v>3.27</v>
+        <v>3.297</v>
       </c>
       <c r="G771" t="n">
-        <v>3.314</v>
+        <v>3.298</v>
       </c>
       <c r="H771" t="n">
-        <v>3.263</v>
+        <v>3.252</v>
       </c>
       <c r="I771" t="n">
-        <v>3.153</v>
+        <v>3.139</v>
       </c>
       <c r="J771" t="n">
-        <v>3.12</v>
+        <v>3.145</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B772" t="n">
-        <v>2.348</v>
+        <v>2.405</v>
       </c>
       <c r="C772" t="n">
-        <v>2.89</v>
+        <v>2.995</v>
       </c>
       <c r="D772" t="n">
-        <v>2.999</v>
+        <v>3.106</v>
       </c>
       <c r="E772" t="n">
-        <v>3.174</v>
+        <v>3.235</v>
       </c>
       <c r="F772" t="n">
-        <v>3.195</v>
+        <v>3.27</v>
       </c>
       <c r="G772" t="n">
-        <v>3.284</v>
+        <v>3.314</v>
       </c>
       <c r="H772" t="n">
-        <v>3.21</v>
+        <v>3.263</v>
       </c>
       <c r="I772" t="n">
-        <v>3.107</v>
+        <v>3.153</v>
       </c>
       <c r="J772" t="n">
-        <v>3.105</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44665</v>
+        <v>44664</v>
       </c>
       <c r="B773" t="n">
-        <v>2.211</v>
+        <v>2.348</v>
       </c>
       <c r="C773" t="n">
-        <v>2.764</v>
+        <v>2.89</v>
       </c>
       <c r="D773" t="n">
-        <v>2.892</v>
+        <v>2.999</v>
       </c>
       <c r="E773" t="n">
-        <v>3.048</v>
+        <v>3.174</v>
       </c>
       <c r="F773" t="n">
-        <v>3.109</v>
+        <v>3.195</v>
       </c>
       <c r="G773" t="n">
-        <v>3.223</v>
+        <v>3.284</v>
       </c>
       <c r="H773" t="n">
-        <v>3.196</v>
+        <v>3.21</v>
       </c>
       <c r="I773" t="n">
-        <v>3.1</v>
+        <v>3.107</v>
       </c>
       <c r="J773" t="n">
-        <v>3.067</v>
+        <v>3.105</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44666</v>
+        <v>44665</v>
       </c>
       <c r="B774" t="n">
-        <v>2.198</v>
+        <v>2.211</v>
       </c>
       <c r="C774" t="n">
-        <v>2.772</v>
+        <v>2.764</v>
       </c>
       <c r="D774" t="n">
-        <v>2.941</v>
+        <v>2.892</v>
       </c>
       <c r="E774" t="n">
-        <v>3.135</v>
+        <v>3.048</v>
       </c>
       <c r="F774" t="n">
-        <v>3.153</v>
+        <v>3.109</v>
       </c>
       <c r="G774" t="n">
-        <v>3.29</v>
+        <v>3.223</v>
       </c>
       <c r="H774" t="n">
-        <v>3.237</v>
+        <v>3.196</v>
       </c>
       <c r="I774" t="n">
-        <v>3.144</v>
+        <v>3.1</v>
       </c>
       <c r="J774" t="n">
-        <v>3.171</v>
+        <v>3.067</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B775" t="n">
         <v>2.198</v>
       </c>
       <c r="C775" t="n">
-        <v>2.77</v>
+        <v>2.772</v>
       </c>
       <c r="D775" t="n">
-        <v>2.953</v>
+        <v>2.941</v>
       </c>
       <c r="E775" t="n">
         <v>3.135</v>
       </c>
       <c r="F775" t="n">
-        <v>3.18</v>
+        <v>3.153</v>
       </c>
       <c r="G775" t="n">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="H775" t="n">
-        <v>3.275</v>
+        <v>3.237</v>
       </c>
       <c r="I775" t="n">
-        <v>3.18</v>
+        <v>3.144</v>
       </c>
       <c r="J775" t="n">
         <v>3.171</v>
@@ -25261,7 +25261,7 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44668</v>
+        <v>44667</v>
       </c>
       <c r="B776" t="n">
         <v>2.198</v>
@@ -25293,191 +25293,191 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44669</v>
+        <v>44668</v>
       </c>
       <c r="B777" t="n">
-        <v>2.215</v>
+        <v>2.198</v>
       </c>
       <c r="C777" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="D777" t="n">
-        <v>2.985</v>
+        <v>2.953</v>
       </c>
       <c r="E777" t="n">
-        <v>3.185</v>
+        <v>3.135</v>
       </c>
       <c r="F777" t="n">
-        <v>3.227</v>
+        <v>3.18</v>
       </c>
       <c r="G777" t="n">
-        <v>3.352</v>
+        <v>3.32</v>
       </c>
       <c r="H777" t="n">
-        <v>3.35</v>
+        <v>3.275</v>
       </c>
       <c r="I777" t="n">
-        <v>3.256</v>
+        <v>3.18</v>
       </c>
       <c r="J777" t="n">
-        <v>3.248</v>
+        <v>3.171</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B778" t="n">
-        <v>2.191</v>
+        <v>2.215</v>
       </c>
       <c r="C778" t="n">
-        <v>2.794</v>
+        <v>2.8</v>
       </c>
       <c r="D778" t="n">
-        <v>2.992</v>
+        <v>2.985</v>
       </c>
       <c r="E778" t="n">
-        <v>3.148</v>
+        <v>3.185</v>
       </c>
       <c r="F778" t="n">
-        <v>3.223</v>
+        <v>3.227</v>
       </c>
       <c r="G778" t="n">
-        <v>3.363</v>
+        <v>3.352</v>
       </c>
       <c r="H778" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="I778" t="n">
-        <v>3.232</v>
+        <v>3.256</v>
       </c>
       <c r="J778" t="n">
-        <v>3.196</v>
+        <v>3.248</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B779" t="n">
-        <v>2.186</v>
+        <v>2.191</v>
       </c>
       <c r="C779" t="n">
-        <v>2.765</v>
+        <v>2.794</v>
       </c>
       <c r="D779" t="n">
-        <v>2.961</v>
+        <v>2.992</v>
       </c>
       <c r="E779" t="n">
-        <v>3.15</v>
+        <v>3.148</v>
       </c>
       <c r="F779" t="n">
-        <v>3.21</v>
+        <v>3.223</v>
       </c>
       <c r="G779" t="n">
-        <v>3.315</v>
+        <v>3.363</v>
       </c>
       <c r="H779" t="n">
-        <v>3.313</v>
+        <v>3.32</v>
       </c>
       <c r="I779" t="n">
-        <v>3.23</v>
+        <v>3.232</v>
       </c>
       <c r="J779" t="n">
-        <v>3.201</v>
+        <v>3.196</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B780" t="n">
-        <v>2.185</v>
+        <v>2.186</v>
       </c>
       <c r="C780" t="n">
-        <v>2.713</v>
+        <v>2.765</v>
       </c>
       <c r="D780" t="n">
-        <v>2.92</v>
+        <v>2.961</v>
       </c>
       <c r="E780" t="n">
-        <v>3.152</v>
+        <v>3.15</v>
       </c>
       <c r="F780" t="n">
-        <v>3.171</v>
+        <v>3.21</v>
       </c>
       <c r="G780" t="n">
-        <v>3.29</v>
+        <v>3.315</v>
       </c>
       <c r="H780" t="n">
-        <v>3.286</v>
+        <v>3.313</v>
       </c>
       <c r="I780" t="n">
-        <v>3.204</v>
+        <v>3.23</v>
       </c>
       <c r="J780" t="n">
-        <v>3.213</v>
+        <v>3.201</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B781" t="n">
-        <v>2.195</v>
+        <v>2.185</v>
       </c>
       <c r="C781" t="n">
-        <v>2.765</v>
+        <v>2.713</v>
       </c>
       <c r="D781" t="n">
-        <v>2.986</v>
+        <v>2.92</v>
       </c>
       <c r="E781" t="n">
-        <v>3.17</v>
+        <v>3.152</v>
       </c>
       <c r="F781" t="n">
-        <v>3.244</v>
+        <v>3.171</v>
       </c>
       <c r="G781" t="n">
-        <v>3.347</v>
+        <v>3.29</v>
       </c>
       <c r="H781" t="n">
-        <v>3.333</v>
+        <v>3.286</v>
       </c>
       <c r="I781" t="n">
-        <v>3.252</v>
+        <v>3.204</v>
       </c>
       <c r="J781" t="n">
-        <v>3.216</v>
+        <v>3.213</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44674</v>
+        <v>44673</v>
       </c>
       <c r="B782" t="n">
         <v>2.195</v>
       </c>
       <c r="C782" t="n">
-        <v>2.732</v>
+        <v>2.765</v>
       </c>
       <c r="D782" t="n">
-        <v>2.96</v>
+        <v>2.986</v>
       </c>
       <c r="E782" t="n">
         <v>3.17</v>
       </c>
       <c r="F782" t="n">
-        <v>3.215</v>
+        <v>3.244</v>
       </c>
       <c r="G782" t="n">
-        <v>3.305</v>
+        <v>3.347</v>
       </c>
       <c r="H782" t="n">
-        <v>3.31</v>
+        <v>3.333</v>
       </c>
       <c r="I782" t="n">
-        <v>3.225</v>
+        <v>3.252</v>
       </c>
       <c r="J782" t="n">
         <v>3.216</v>
@@ -25485,7 +25485,7 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44675</v>
+        <v>44674</v>
       </c>
       <c r="B783" t="n">
         <v>2.195</v>
@@ -25517,63 +25517,63 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44676</v>
+        <v>44675</v>
       </c>
       <c r="B784" t="n">
-        <v>2.165</v>
+        <v>2.195</v>
       </c>
       <c r="C784" t="n">
-        <v>2.681</v>
+        <v>2.732</v>
       </c>
       <c r="D784" t="n">
-        <v>2.884</v>
+        <v>2.96</v>
       </c>
       <c r="E784" t="n">
-        <v>3.04</v>
+        <v>3.17</v>
       </c>
       <c r="F784" t="n">
-        <v>3.113</v>
+        <v>3.215</v>
       </c>
       <c r="G784" t="n">
-        <v>3.21</v>
+        <v>3.305</v>
       </c>
       <c r="H784" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="I784" t="n">
-        <v>3.155</v>
+        <v>3.225</v>
       </c>
       <c r="J784" t="n">
-        <v>3.121</v>
+        <v>3.216</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="B785" t="n">
-        <v>2.148</v>
+        <v>2.165</v>
       </c>
       <c r="C785" t="n">
-        <v>2.655</v>
+        <v>2.681</v>
       </c>
       <c r="D785" t="n">
-        <v>2.859</v>
+        <v>2.884</v>
       </c>
       <c r="E785" t="n">
-        <v>3.031</v>
+        <v>3.04</v>
       </c>
       <c r="F785" t="n">
-        <v>3.091</v>
+        <v>3.113</v>
       </c>
       <c r="G785" t="n">
-        <v>3.195</v>
+        <v>3.21</v>
       </c>
       <c r="H785" t="n">
-        <v>3.193</v>
+        <v>3.24</v>
       </c>
       <c r="I785" t="n">
-        <v>3.136</v>
+        <v>3.155</v>
       </c>
       <c r="J785" t="n">
         <v>3.121</v>
@@ -25581,127 +25581,127 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B786" t="n">
-        <v>2.178</v>
+        <v>2.148</v>
       </c>
       <c r="C786" t="n">
-        <v>2.675</v>
+        <v>2.655</v>
       </c>
       <c r="D786" t="n">
-        <v>2.868</v>
+        <v>2.859</v>
       </c>
       <c r="E786" t="n">
-        <v>3.08</v>
+        <v>3.031</v>
       </c>
       <c r="F786" t="n">
-        <v>3.093</v>
+        <v>3.091</v>
       </c>
       <c r="G786" t="n">
-        <v>3.163</v>
+        <v>3.195</v>
       </c>
       <c r="H786" t="n">
-        <v>3.173</v>
+        <v>3.193</v>
       </c>
       <c r="I786" t="n">
-        <v>3.104</v>
+        <v>3.136</v>
       </c>
       <c r="J786" t="n">
-        <v>3.111</v>
+        <v>3.121</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="B787" t="n">
-        <v>2.203</v>
+        <v>2.178</v>
       </c>
       <c r="C787" t="n">
-        <v>2.745</v>
+        <v>2.675</v>
       </c>
       <c r="D787" t="n">
-        <v>2.926</v>
+        <v>2.868</v>
       </c>
       <c r="E787" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="F787" t="n">
-        <v>3.137</v>
+        <v>3.093</v>
       </c>
       <c r="G787" t="n">
-        <v>3.168</v>
+        <v>3.163</v>
       </c>
       <c r="H787" t="n">
-        <v>3.161</v>
+        <v>3.173</v>
       </c>
       <c r="I787" t="n">
-        <v>3.092</v>
+        <v>3.104</v>
       </c>
       <c r="J787" t="n">
-        <v>3.076</v>
+        <v>3.111</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44680</v>
+        <v>44679</v>
       </c>
       <c r="B788" t="n">
-        <v>2.221</v>
+        <v>2.203</v>
       </c>
       <c r="C788" t="n">
-        <v>2.78</v>
+        <v>2.745</v>
       </c>
       <c r="D788" t="n">
-        <v>2.958</v>
+        <v>2.926</v>
       </c>
       <c r="E788" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F788" t="n">
         <v>3.137</v>
       </c>
-      <c r="F788" t="n">
-        <v>3.172</v>
-      </c>
       <c r="G788" t="n">
-        <v>3.245</v>
+        <v>3.168</v>
       </c>
       <c r="H788" t="n">
-        <v>3.232</v>
+        <v>3.161</v>
       </c>
       <c r="I788" t="n">
-        <v>3.16</v>
+        <v>3.092</v>
       </c>
       <c r="J788" t="n">
-        <v>3.161</v>
+        <v>3.076</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="B789" t="n">
         <v>2.221</v>
       </c>
       <c r="C789" t="n">
-        <v>2.755</v>
+        <v>2.78</v>
       </c>
       <c r="D789" t="n">
-        <v>2.96</v>
+        <v>2.958</v>
       </c>
       <c r="E789" t="n">
         <v>3.137</v>
       </c>
       <c r="F789" t="n">
-        <v>3.17</v>
+        <v>3.172</v>
       </c>
       <c r="G789" t="n">
-        <v>3.235</v>
+        <v>3.245</v>
       </c>
       <c r="H789" t="n">
-        <v>3.233</v>
+        <v>3.232</v>
       </c>
       <c r="I789" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="J789" t="n">
         <v>3.161</v>
@@ -25709,7 +25709,7 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B790" t="n">
         <v>2.221</v>
@@ -25741,63 +25741,63 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B791" t="n">
-        <v>2.251</v>
+        <v>2.221</v>
       </c>
       <c r="C791" t="n">
-        <v>2.888</v>
+        <v>2.755</v>
       </c>
       <c r="D791" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="E791" t="n">
-        <v>3.281</v>
+        <v>3.137</v>
       </c>
       <c r="F791" t="n">
-        <v>3.309</v>
+        <v>3.17</v>
       </c>
       <c r="G791" t="n">
-        <v>3.372</v>
+        <v>3.235</v>
       </c>
       <c r="H791" t="n">
-        <v>3.353</v>
+        <v>3.233</v>
       </c>
       <c r="I791" t="n">
-        <v>3.279</v>
+        <v>3.17</v>
       </c>
       <c r="J791" t="n">
-        <v>3.273</v>
+        <v>3.161</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44684</v>
+        <v>44683</v>
       </c>
       <c r="B792" t="n">
-        <v>2.26</v>
+        <v>2.251</v>
       </c>
       <c r="C792" t="n">
-        <v>2.898</v>
+        <v>2.888</v>
       </c>
       <c r="D792" t="n">
-        <v>3.138</v>
+        <v>3.08</v>
       </c>
       <c r="E792" t="n">
-        <v>3.294</v>
+        <v>3.281</v>
       </c>
       <c r="F792" t="n">
-        <v>3.351</v>
+        <v>3.309</v>
       </c>
       <c r="G792" t="n">
-        <v>3.408</v>
+        <v>3.372</v>
       </c>
       <c r="H792" t="n">
         <v>3.353</v>
       </c>
       <c r="I792" t="n">
-        <v>3.285</v>
+        <v>3.279</v>
       </c>
       <c r="J792" t="n">
         <v>3.273</v>
@@ -25805,63 +25805,63 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="B793" t="n">
-        <v>2.29</v>
+        <v>2.26</v>
       </c>
       <c r="C793" t="n">
-        <v>3</v>
+        <v>2.898</v>
       </c>
       <c r="D793" t="n">
-        <v>3.217</v>
+        <v>3.138</v>
       </c>
       <c r="E793" t="n">
-        <v>3.347</v>
+        <v>3.294</v>
       </c>
       <c r="F793" t="n">
-        <v>3.428</v>
+        <v>3.351</v>
       </c>
       <c r="G793" t="n">
-        <v>3.462</v>
+        <v>3.408</v>
       </c>
       <c r="H793" t="n">
-        <v>3.396</v>
+        <v>3.353</v>
       </c>
       <c r="I793" t="n">
-        <v>3.296</v>
+        <v>3.285</v>
       </c>
       <c r="J793" t="n">
-        <v>3.28</v>
+        <v>3.273</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44686</v>
+        <v>44685</v>
       </c>
       <c r="B794" t="n">
         <v>2.29</v>
       </c>
       <c r="C794" t="n">
-        <v>2.958</v>
+        <v>3</v>
       </c>
       <c r="D794" t="n">
-        <v>3.175</v>
+        <v>3.217</v>
       </c>
       <c r="E794" t="n">
         <v>3.347</v>
       </c>
       <c r="F794" t="n">
-        <v>3.385</v>
+        <v>3.428</v>
       </c>
       <c r="G794" t="n">
-        <v>3.428</v>
+        <v>3.462</v>
       </c>
       <c r="H794" t="n">
-        <v>3.375</v>
+        <v>3.396</v>
       </c>
       <c r="I794" t="n">
-        <v>3.289</v>
+        <v>3.296</v>
       </c>
       <c r="J794" t="n">
         <v>3.28</v>
@@ -25869,63 +25869,63 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44687</v>
+        <v>44686</v>
       </c>
       <c r="B795" t="n">
-        <v>2.286</v>
+        <v>2.29</v>
       </c>
       <c r="C795" t="n">
-        <v>2.923</v>
+        <v>2.958</v>
       </c>
       <c r="D795" t="n">
-        <v>3.141</v>
+        <v>3.175</v>
       </c>
       <c r="E795" t="n">
-        <v>3.334</v>
+        <v>3.347</v>
       </c>
       <c r="F795" t="n">
-        <v>3.372</v>
+        <v>3.385</v>
       </c>
       <c r="G795" t="n">
-        <v>3.437</v>
+        <v>3.428</v>
       </c>
       <c r="H795" t="n">
-        <v>3.38</v>
+        <v>3.375</v>
       </c>
       <c r="I795" t="n">
-        <v>3.287</v>
+        <v>3.289</v>
       </c>
       <c r="J795" t="n">
-        <v>3.276</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="B796" t="n">
         <v>2.286</v>
       </c>
       <c r="C796" t="n">
-        <v>2.925</v>
+        <v>2.923</v>
       </c>
       <c r="D796" t="n">
-        <v>3.145</v>
+        <v>3.141</v>
       </c>
       <c r="E796" t="n">
         <v>3.334</v>
       </c>
       <c r="F796" t="n">
-        <v>3.36</v>
+        <v>3.372</v>
       </c>
       <c r="G796" t="n">
-        <v>3.42</v>
+        <v>3.437</v>
       </c>
       <c r="H796" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="I796" t="n">
-        <v>3.285</v>
+        <v>3.287</v>
       </c>
       <c r="J796" t="n">
         <v>3.276</v>
@@ -25933,7 +25933,7 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44689</v>
+        <v>44688</v>
       </c>
       <c r="B797" t="n">
         <v>2.286</v>
@@ -25965,191 +25965,191 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44690</v>
+        <v>44689</v>
       </c>
       <c r="B798" t="n">
-        <v>2.26</v>
+        <v>2.286</v>
       </c>
       <c r="C798" t="n">
-        <v>2.873</v>
+        <v>2.925</v>
       </c>
       <c r="D798" t="n">
-        <v>3.06</v>
+        <v>3.145</v>
       </c>
       <c r="E798" t="n">
-        <v>3.279</v>
+        <v>3.334</v>
       </c>
       <c r="F798" t="n">
-        <v>3.319</v>
+        <v>3.36</v>
       </c>
       <c r="G798" t="n">
-        <v>3.413</v>
+        <v>3.42</v>
       </c>
       <c r="H798" t="n">
-        <v>3.385</v>
+        <v>3.37</v>
       </c>
       <c r="I798" t="n">
-        <v>3.296</v>
+        <v>3.285</v>
       </c>
       <c r="J798" t="n">
-        <v>3.296</v>
+        <v>3.276</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="B799" t="n">
-        <v>2.241</v>
+        <v>2.26</v>
       </c>
       <c r="C799" t="n">
-        <v>2.852</v>
+        <v>2.873</v>
       </c>
       <c r="D799" t="n">
-        <v>3.046</v>
+        <v>3.06</v>
       </c>
       <c r="E799" t="n">
-        <v>3.27</v>
+        <v>3.279</v>
       </c>
       <c r="F799" t="n">
+        <v>3.319</v>
+      </c>
+      <c r="G799" t="n">
+        <v>3.413</v>
+      </c>
+      <c r="H799" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="I799" t="n">
         <v>3.296</v>
       </c>
-      <c r="G799" t="n">
-        <v>3.403</v>
-      </c>
-      <c r="H799" t="n">
-        <v>3.383</v>
-      </c>
-      <c r="I799" t="n">
-        <v>3.29</v>
-      </c>
       <c r="J799" t="n">
-        <v>3.288</v>
+        <v>3.296</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B800" t="n">
-        <v>2.169</v>
+        <v>2.241</v>
       </c>
       <c r="C800" t="n">
-        <v>2.754</v>
+        <v>2.852</v>
       </c>
       <c r="D800" t="n">
-        <v>2.935</v>
+        <v>3.046</v>
       </c>
       <c r="E800" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="F800" t="n">
-        <v>3.164</v>
+        <v>3.296</v>
       </c>
       <c r="G800" t="n">
-        <v>3.273</v>
+        <v>3.403</v>
       </c>
       <c r="H800" t="n">
-        <v>3.27</v>
+        <v>3.383</v>
       </c>
       <c r="I800" t="n">
-        <v>3.193</v>
+        <v>3.29</v>
       </c>
       <c r="J800" t="n">
-        <v>3.176</v>
+        <v>3.288</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B801" t="n">
-        <v>2.161</v>
+        <v>2.169</v>
       </c>
       <c r="C801" t="n">
-        <v>2.73</v>
+        <v>2.754</v>
       </c>
       <c r="D801" t="n">
-        <v>2.901</v>
+        <v>2.935</v>
       </c>
       <c r="E801" t="n">
-        <v>3.07</v>
+        <v>3.12</v>
       </c>
       <c r="F801" t="n">
-        <v>3.1</v>
+        <v>3.164</v>
       </c>
       <c r="G801" t="n">
-        <v>3.167</v>
+        <v>3.273</v>
       </c>
       <c r="H801" t="n">
-        <v>3.168</v>
+        <v>3.27</v>
       </c>
       <c r="I801" t="n">
-        <v>3.089</v>
+        <v>3.193</v>
       </c>
       <c r="J801" t="n">
-        <v>3.081</v>
+        <v>3.176</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44694</v>
+        <v>44693</v>
       </c>
       <c r="B802" t="n">
         <v>2.161</v>
       </c>
       <c r="C802" t="n">
-        <v>2.705</v>
+        <v>2.73</v>
       </c>
       <c r="D802" t="n">
-        <v>2.907</v>
+        <v>2.901</v>
       </c>
       <c r="E802" t="n">
-        <v>3.097</v>
+        <v>3.07</v>
       </c>
       <c r="F802" t="n">
-        <v>3.119</v>
+        <v>3.1</v>
       </c>
       <c r="G802" t="n">
-        <v>3.216</v>
+        <v>3.167</v>
       </c>
       <c r="H802" t="n">
-        <v>3.188</v>
+        <v>3.168</v>
       </c>
       <c r="I802" t="n">
-        <v>3.114</v>
+        <v>3.089</v>
       </c>
       <c r="J802" t="n">
-        <v>3.095</v>
+        <v>3.081</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44695</v>
+        <v>44694</v>
       </c>
       <c r="B803" t="n">
         <v>2.161</v>
       </c>
       <c r="C803" t="n">
-        <v>2.696</v>
+        <v>2.705</v>
       </c>
       <c r="D803" t="n">
-        <v>2.922</v>
+        <v>2.907</v>
       </c>
       <c r="E803" t="n">
         <v>3.097</v>
       </c>
       <c r="F803" t="n">
-        <v>3.127</v>
+        <v>3.119</v>
       </c>
       <c r="G803" t="n">
-        <v>3.23</v>
+        <v>3.216</v>
       </c>
       <c r="H803" t="n">
-        <v>3.195</v>
+        <v>3.188</v>
       </c>
       <c r="I803" t="n">
-        <v>3.117</v>
+        <v>3.114</v>
       </c>
       <c r="J803" t="n">
         <v>3.095</v>
@@ -26157,7 +26157,7 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44696</v>
+        <v>44695</v>
       </c>
       <c r="B804" t="n">
         <v>2.161</v>
@@ -26189,191 +26189,191 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44697</v>
+        <v>44696</v>
       </c>
       <c r="B805" t="n">
-        <v>2.26</v>
+        <v>2.161</v>
       </c>
       <c r="C805" t="n">
-        <v>2.824</v>
+        <v>2.696</v>
       </c>
       <c r="D805" t="n">
-        <v>3.051</v>
+        <v>2.922</v>
       </c>
       <c r="E805" t="n">
-        <v>3.187</v>
+        <v>3.097</v>
       </c>
       <c r="F805" t="n">
-        <v>3.232</v>
+        <v>3.127</v>
       </c>
       <c r="G805" t="n">
-        <v>3.291</v>
+        <v>3.23</v>
       </c>
       <c r="H805" t="n">
-        <v>3.223</v>
+        <v>3.195</v>
       </c>
       <c r="I805" t="n">
-        <v>3.158</v>
+        <v>3.117</v>
       </c>
       <c r="J805" t="n">
-        <v>3.11</v>
+        <v>3.095</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44698</v>
+        <v>44697</v>
       </c>
       <c r="B806" t="n">
-        <v>2.278</v>
+        <v>2.26</v>
       </c>
       <c r="C806" t="n">
-        <v>2.807</v>
+        <v>2.824</v>
       </c>
       <c r="D806" t="n">
-        <v>3.033</v>
+        <v>3.051</v>
       </c>
       <c r="E806" t="n">
-        <v>3.194</v>
+        <v>3.187</v>
       </c>
       <c r="F806" t="n">
-        <v>3.231</v>
+        <v>3.232</v>
       </c>
       <c r="G806" t="n">
-        <v>3.289</v>
+        <v>3.291</v>
       </c>
       <c r="H806" t="n">
-        <v>3.219</v>
+        <v>3.223</v>
       </c>
       <c r="I806" t="n">
-        <v>3.149</v>
+        <v>3.158</v>
       </c>
       <c r="J806" t="n">
-        <v>3.108</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="B807" t="n">
-        <v>2.291</v>
+        <v>2.278</v>
       </c>
       <c r="C807" t="n">
-        <v>2.799</v>
+        <v>2.807</v>
       </c>
       <c r="D807" t="n">
-        <v>3.072</v>
+        <v>3.033</v>
       </c>
       <c r="E807" t="n">
-        <v>3.225</v>
+        <v>3.194</v>
       </c>
       <c r="F807" t="n">
-        <v>3.271</v>
+        <v>3.231</v>
       </c>
       <c r="G807" t="n">
-        <v>3.32</v>
+        <v>3.289</v>
       </c>
       <c r="H807" t="n">
-        <v>3.255</v>
+        <v>3.219</v>
       </c>
       <c r="I807" t="n">
-        <v>3.166</v>
+        <v>3.149</v>
       </c>
       <c r="J807" t="n">
-        <v>3.133</v>
+        <v>3.108</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="B808" t="n">
-        <v>2.29</v>
+        <v>2.291</v>
       </c>
       <c r="C808" t="n">
-        <v>2.777</v>
+        <v>2.799</v>
       </c>
       <c r="D808" t="n">
-        <v>3.046</v>
+        <v>3.072</v>
       </c>
       <c r="E808" t="n">
-        <v>3.213</v>
+        <v>3.225</v>
       </c>
       <c r="F808" t="n">
-        <v>3.251</v>
+        <v>3.271</v>
       </c>
       <c r="G808" t="n">
-        <v>3.307</v>
+        <v>3.32</v>
       </c>
       <c r="H808" t="n">
-        <v>3.249</v>
+        <v>3.255</v>
       </c>
       <c r="I808" t="n">
-        <v>3.159</v>
+        <v>3.166</v>
       </c>
       <c r="J808" t="n">
-        <v>3.135</v>
+        <v>3.133</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="B809" t="n">
         <v>2.29</v>
       </c>
       <c r="C809" t="n">
-        <v>2.74</v>
+        <v>2.777</v>
       </c>
       <c r="D809" t="n">
-        <v>3.013</v>
+        <v>3.046</v>
       </c>
       <c r="E809" t="n">
-        <v>3.155</v>
+        <v>3.213</v>
       </c>
       <c r="F809" t="n">
-        <v>3.205</v>
+        <v>3.251</v>
       </c>
       <c r="G809" t="n">
-        <v>3.247</v>
+        <v>3.307</v>
       </c>
       <c r="H809" t="n">
-        <v>3.236</v>
+        <v>3.249</v>
       </c>
       <c r="I809" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="J809" t="n">
         <v>3.135</v>
-      </c>
-      <c r="J809" t="n">
-        <v>3.105</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="B810" t="n">
         <v>2.29</v>
       </c>
       <c r="C810" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="D810" t="n">
-        <v>3.005</v>
+        <v>3.013</v>
       </c>
       <c r="E810" t="n">
         <v>3.155</v>
       </c>
       <c r="F810" t="n">
-        <v>3.197</v>
+        <v>3.205</v>
       </c>
       <c r="G810" t="n">
-        <v>3.24</v>
+        <v>3.247</v>
       </c>
       <c r="H810" t="n">
-        <v>3.23</v>
+        <v>3.236</v>
       </c>
       <c r="I810" t="n">
-        <v>3.127</v>
+        <v>3.135</v>
       </c>
       <c r="J810" t="n">
         <v>3.105</v>
@@ -26381,7 +26381,7 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44703</v>
+        <v>44702</v>
       </c>
       <c r="B811" t="n">
         <v>2.29</v>
@@ -26413,191 +26413,191 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44704</v>
+        <v>44703</v>
       </c>
       <c r="B812" t="n">
-        <v>2.311</v>
+        <v>2.29</v>
       </c>
       <c r="C812" t="n">
-        <v>2.759</v>
+        <v>2.73</v>
       </c>
       <c r="D812" t="n">
-        <v>3.018</v>
+        <v>3.005</v>
       </c>
       <c r="E812" t="n">
-        <v>3.166</v>
+        <v>3.155</v>
       </c>
       <c r="F812" t="n">
-        <v>3.205</v>
+        <v>3.197</v>
       </c>
       <c r="G812" t="n">
-        <v>3.257</v>
+        <v>3.24</v>
       </c>
       <c r="H812" t="n">
-        <v>3.235</v>
+        <v>3.23</v>
       </c>
       <c r="I812" t="n">
-        <v>3.144</v>
+        <v>3.127</v>
       </c>
       <c r="J812" t="n">
-        <v>3.124</v>
+        <v>3.105</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44705</v>
+        <v>44704</v>
       </c>
       <c r="B813" t="n">
-        <v>2.291</v>
+        <v>2.311</v>
       </c>
       <c r="C813" t="n">
-        <v>2.72</v>
+        <v>2.759</v>
       </c>
       <c r="D813" t="n">
-        <v>2.967</v>
+        <v>3.018</v>
       </c>
       <c r="E813" t="n">
-        <v>3.09</v>
+        <v>3.166</v>
       </c>
       <c r="F813" t="n">
-        <v>3.155</v>
+        <v>3.205</v>
       </c>
       <c r="G813" t="n">
-        <v>3.216</v>
+        <v>3.257</v>
       </c>
       <c r="H813" t="n">
-        <v>3.219</v>
+        <v>3.235</v>
       </c>
       <c r="I813" t="n">
-        <v>3.127</v>
+        <v>3.144</v>
       </c>
       <c r="J813" t="n">
-        <v>3.095</v>
+        <v>3.124</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="B814" t="n">
-        <v>2.292</v>
+        <v>2.291</v>
       </c>
       <c r="C814" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="D814" t="n">
-        <v>2.931</v>
+        <v>2.967</v>
       </c>
       <c r="E814" t="n">
-        <v>3.075</v>
+        <v>3.09</v>
       </c>
       <c r="F814" t="n">
-        <v>3.11</v>
+        <v>3.155</v>
       </c>
       <c r="G814" t="n">
-        <v>3.173</v>
+        <v>3.216</v>
       </c>
       <c r="H814" t="n">
-        <v>3.159</v>
+        <v>3.219</v>
       </c>
       <c r="I814" t="n">
-        <v>3.07</v>
+        <v>3.127</v>
       </c>
       <c r="J814" t="n">
-        <v>3.058</v>
+        <v>3.095</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="B815" t="n">
-        <v>2.301</v>
+        <v>2.292</v>
       </c>
       <c r="C815" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="D815" t="n">
-        <v>2.955</v>
+        <v>2.931</v>
       </c>
       <c r="E815" t="n">
-        <v>3.09</v>
+        <v>3.075</v>
       </c>
       <c r="F815" t="n">
-        <v>3.154</v>
+        <v>3.11</v>
       </c>
       <c r="G815" t="n">
-        <v>3.239</v>
+        <v>3.173</v>
       </c>
       <c r="H815" t="n">
-        <v>3.226</v>
+        <v>3.159</v>
       </c>
       <c r="I815" t="n">
-        <v>3.133</v>
+        <v>3.07</v>
       </c>
       <c r="J815" t="n">
-        <v>3.113</v>
+        <v>3.058</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="B816" t="n">
-        <v>2.242</v>
+        <v>2.301</v>
       </c>
       <c r="C816" t="n">
-        <v>2.691</v>
+        <v>2.72</v>
       </c>
       <c r="D816" t="n">
-        <v>2.946</v>
+        <v>2.955</v>
       </c>
       <c r="E816" t="n">
-        <v>3.075</v>
+        <v>3.09</v>
       </c>
       <c r="F816" t="n">
-        <v>3.134</v>
+        <v>3.154</v>
       </c>
       <c r="G816" t="n">
-        <v>3.211</v>
+        <v>3.239</v>
       </c>
       <c r="H816" t="n">
-        <v>3.192</v>
+        <v>3.226</v>
       </c>
       <c r="I816" t="n">
-        <v>3.087</v>
+        <v>3.133</v>
       </c>
       <c r="J816" t="n">
-        <v>3.076</v>
+        <v>3.113</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B817" t="n">
         <v>2.242</v>
       </c>
       <c r="C817" t="n">
-        <v>2.688</v>
+        <v>2.691</v>
       </c>
       <c r="D817" t="n">
-        <v>2.95</v>
+        <v>2.946</v>
       </c>
       <c r="E817" t="n">
         <v>3.075</v>
       </c>
       <c r="F817" t="n">
-        <v>3.14</v>
+        <v>3.134</v>
       </c>
       <c r="G817" t="n">
-        <v>3.217</v>
+        <v>3.211</v>
       </c>
       <c r="H817" t="n">
-        <v>3.205</v>
+        <v>3.192</v>
       </c>
       <c r="I817" t="n">
-        <v>3.098</v>
+        <v>3.087</v>
       </c>
       <c r="J817" t="n">
         <v>3.076</v>
@@ -26605,7 +26605,7 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B818" t="n">
         <v>2.242</v>
@@ -26637,95 +26637,95 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44711</v>
+        <v>44710</v>
       </c>
       <c r="B819" t="n">
-        <v>2.23</v>
+        <v>2.242</v>
       </c>
       <c r="C819" t="n">
-        <v>2.687</v>
+        <v>2.688</v>
       </c>
       <c r="D819" t="n">
-        <v>2.933</v>
+        <v>2.95</v>
       </c>
       <c r="E819" t="n">
-        <v>3.085</v>
+        <v>3.075</v>
       </c>
       <c r="F819" t="n">
-        <v>3.139</v>
+        <v>3.14</v>
       </c>
       <c r="G819" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="H819" t="n">
         <v>3.205</v>
       </c>
-      <c r="H819" t="n">
-        <v>3.167</v>
-      </c>
       <c r="I819" t="n">
-        <v>3.069</v>
+        <v>3.098</v>
       </c>
       <c r="J819" t="n">
-        <v>3.048</v>
+        <v>3.076</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44712</v>
+        <v>44711</v>
       </c>
       <c r="B820" t="n">
-        <v>2.253</v>
+        <v>2.23</v>
       </c>
       <c r="C820" t="n">
-        <v>2.778</v>
+        <v>2.687</v>
       </c>
       <c r="D820" t="n">
-        <v>3.024</v>
+        <v>2.933</v>
       </c>
       <c r="E820" t="n">
-        <v>3.189</v>
+        <v>3.085</v>
       </c>
       <c r="F820" t="n">
-        <v>3.257</v>
+        <v>3.139</v>
       </c>
       <c r="G820" t="n">
-        <v>3.324</v>
+        <v>3.205</v>
       </c>
       <c r="H820" t="n">
-        <v>3.229</v>
+        <v>3.167</v>
       </c>
       <c r="I820" t="n">
-        <v>3.128</v>
+        <v>3.069</v>
       </c>
       <c r="J820" t="n">
-        <v>3.123</v>
+        <v>3.048</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44713</v>
+        <v>44712</v>
       </c>
       <c r="B821" t="n">
         <v>2.253</v>
       </c>
       <c r="C821" t="n">
-        <v>2.758</v>
+        <v>2.778</v>
       </c>
       <c r="D821" t="n">
-        <v>3.031</v>
+        <v>3.024</v>
       </c>
       <c r="E821" t="n">
         <v>3.189</v>
       </c>
       <c r="F821" t="n">
-        <v>3.252</v>
+        <v>3.257</v>
       </c>
       <c r="G821" t="n">
-        <v>3.33</v>
+        <v>3.324</v>
       </c>
       <c r="H821" t="n">
-        <v>3.257</v>
+        <v>3.229</v>
       </c>
       <c r="I821" t="n">
-        <v>3.145</v>
+        <v>3.128</v>
       </c>
       <c r="J821" t="n">
         <v>3.123</v>
@@ -26733,89 +26733,89 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44714</v>
+        <v>44713</v>
       </c>
       <c r="B822" t="n">
-        <v>2.277</v>
+        <v>2.253</v>
       </c>
       <c r="C822" t="n">
-        <v>2.84</v>
+        <v>2.758</v>
       </c>
       <c r="D822" t="n">
-        <v>3.127</v>
+        <v>3.031</v>
       </c>
       <c r="E822" t="n">
-        <v>3.3</v>
+        <v>3.189</v>
       </c>
       <c r="F822" t="n">
-        <v>3.364</v>
+        <v>3.252</v>
       </c>
       <c r="G822" t="n">
-        <v>3.422</v>
+        <v>3.33</v>
       </c>
       <c r="H822" t="n">
-        <v>3.337</v>
+        <v>3.257</v>
       </c>
       <c r="I822" t="n">
-        <v>3.202</v>
+        <v>3.145</v>
       </c>
       <c r="J822" t="n">
-        <v>3.168</v>
+        <v>3.123</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B823" t="n">
-        <v>2.29</v>
+        <v>2.277</v>
       </c>
       <c r="C823" t="n">
-        <v>2.851</v>
+        <v>2.84</v>
       </c>
       <c r="D823" t="n">
-        <v>3.12</v>
+        <v>3.127</v>
       </c>
       <c r="E823" t="n">
-        <v>3.305</v>
+        <v>3.3</v>
       </c>
       <c r="F823" t="n">
         <v>3.364</v>
       </c>
       <c r="G823" t="n">
-        <v>3.403</v>
+        <v>3.422</v>
       </c>
       <c r="H823" t="n">
-        <v>3.29</v>
+        <v>3.337</v>
       </c>
       <c r="I823" t="n">
-        <v>3.16</v>
+        <v>3.202</v>
       </c>
       <c r="J823" t="n">
-        <v>3.138</v>
+        <v>3.168</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B824" t="n">
         <v>2.29</v>
       </c>
       <c r="C824" t="n">
-        <v>2.835</v>
+        <v>2.851</v>
       </c>
       <c r="D824" t="n">
-        <v>3.125</v>
+        <v>3.12</v>
       </c>
       <c r="E824" t="n">
         <v>3.305</v>
       </c>
       <c r="F824" t="n">
-        <v>3.365</v>
+        <v>3.364</v>
       </c>
       <c r="G824" t="n">
-        <v>3.407</v>
+        <v>3.403</v>
       </c>
       <c r="H824" t="n">
         <v>3.29</v>
@@ -26829,7 +26829,7 @@
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44717</v>
+        <v>44716</v>
       </c>
       <c r="B825" t="n">
         <v>2.29</v>
@@ -26861,7 +26861,7 @@
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44718</v>
+        <v>44717</v>
       </c>
       <c r="B826" t="n">
         <v>2.29</v>
@@ -26893,135 +26893,135 @@
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44719</v>
+        <v>44718</v>
       </c>
       <c r="B827" t="n">
-        <v>2.361</v>
+        <v>2.29</v>
       </c>
       <c r="C827" t="n">
-        <v>2.937</v>
+        <v>2.835</v>
       </c>
       <c r="D827" t="n">
-        <v>3.231</v>
+        <v>3.125</v>
       </c>
       <c r="E827" t="n">
-        <v>3.44</v>
+        <v>3.305</v>
       </c>
       <c r="F827" t="n">
-        <v>3.501</v>
+        <v>3.365</v>
       </c>
       <c r="G827" t="n">
-        <v>3.538</v>
+        <v>3.407</v>
       </c>
       <c r="H827" t="n">
-        <v>3.385</v>
+        <v>3.29</v>
       </c>
       <c r="I827" t="n">
-        <v>3.236</v>
+        <v>3.16</v>
       </c>
       <c r="J827" t="n">
-        <v>3.211</v>
+        <v>3.138</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44720</v>
+        <v>44719</v>
       </c>
       <c r="B828" t="n">
-        <v>2.358</v>
+        <v>2.361</v>
       </c>
       <c r="C828" t="n">
-        <v>2.933</v>
+        <v>2.937</v>
       </c>
       <c r="D828" t="n">
-        <v>3.214</v>
+        <v>3.231</v>
       </c>
       <c r="E828" t="n">
-        <v>3.372</v>
+        <v>3.44</v>
       </c>
       <c r="F828" t="n">
-        <v>3.45</v>
+        <v>3.501</v>
       </c>
       <c r="G828" t="n">
-        <v>3.474</v>
+        <v>3.538</v>
       </c>
       <c r="H828" t="n">
-        <v>3.32</v>
+        <v>3.385</v>
       </c>
       <c r="I828" t="n">
-        <v>3.168</v>
+        <v>3.236</v>
       </c>
       <c r="J828" t="n">
-        <v>3.141</v>
+        <v>3.211</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44721</v>
+        <v>44720</v>
       </c>
       <c r="B829" t="n">
-        <v>2.353</v>
+        <v>2.358</v>
       </c>
       <c r="C829" t="n">
-        <v>3.03</v>
+        <v>2.933</v>
       </c>
       <c r="D829" t="n">
-        <v>3.245</v>
+        <v>3.214</v>
       </c>
       <c r="E829" t="n">
-        <v>3.332</v>
+        <v>3.372</v>
       </c>
       <c r="F829" t="n">
-        <v>3.439</v>
+        <v>3.45</v>
       </c>
       <c r="G829" t="n">
-        <v>3.465</v>
+        <v>3.474</v>
       </c>
       <c r="H829" t="n">
-        <v>3.339</v>
+        <v>3.32</v>
       </c>
       <c r="I829" t="n">
-        <v>3.18</v>
+        <v>3.168</v>
       </c>
       <c r="J829" t="n">
-        <v>3.158</v>
+        <v>3.141</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44722</v>
+        <v>44721</v>
       </c>
       <c r="B830" t="n">
-        <v>2.34</v>
+        <v>2.353</v>
       </c>
       <c r="C830" t="n">
-        <v>3.061</v>
+        <v>3.03</v>
       </c>
       <c r="D830" t="n">
-        <v>3.275</v>
+        <v>3.245</v>
       </c>
       <c r="E830" t="n">
-        <v>3.376</v>
+        <v>3.332</v>
       </c>
       <c r="F830" t="n">
-        <v>3.451</v>
+        <v>3.439</v>
       </c>
       <c r="G830" t="n">
-        <v>3.495</v>
+        <v>3.465</v>
       </c>
       <c r="H830" t="n">
-        <v>3.405</v>
+        <v>3.339</v>
       </c>
       <c r="I830" t="n">
-        <v>3.272</v>
+        <v>3.18</v>
       </c>
       <c r="J830" t="n">
-        <v>3.16</v>
+        <v>3.158</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44724</v>
+        <v>44722</v>
       </c>
       <c r="B831" t="n">
         <v>2.34</v>
@@ -27036,184 +27036,184 @@
         <v>3.376</v>
       </c>
       <c r="F831" t="n">
-        <v>3.457</v>
+        <v>3.451</v>
       </c>
       <c r="G831" t="n">
-        <v>3.49</v>
+        <v>3.495</v>
       </c>
       <c r="H831" t="n">
-        <v>3.404</v>
+        <v>3.405</v>
       </c>
       <c r="I831" t="n">
-        <v>3.27</v>
+        <v>3.272</v>
       </c>
       <c r="J831" t="n">
-        <v>3.241</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44725</v>
+        <v>44724</v>
       </c>
       <c r="B832" t="n">
-        <v>2.426</v>
+        <v>2.34</v>
       </c>
       <c r="C832" t="n">
-        <v>3.358</v>
+        <v>3.061</v>
       </c>
       <c r="D832" t="n">
-        <v>3.483</v>
+        <v>3.275</v>
       </c>
       <c r="E832" t="n">
-        <v>3.626</v>
+        <v>3.376</v>
       </c>
       <c r="F832" t="n">
-        <v>3.652</v>
+        <v>3.457</v>
       </c>
       <c r="G832" t="n">
-        <v>3.644</v>
+        <v>3.49</v>
       </c>
       <c r="H832" t="n">
-        <v>3.54</v>
+        <v>3.404</v>
       </c>
       <c r="I832" t="n">
-        <v>3.383</v>
+        <v>3.27</v>
       </c>
       <c r="J832" t="n">
-        <v>3.371</v>
+        <v>3.241</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44726</v>
+        <v>44725</v>
       </c>
       <c r="B833" t="n">
-        <v>2.445</v>
+        <v>2.426</v>
       </c>
       <c r="C833" t="n">
-        <v>3.393</v>
+        <v>3.358</v>
       </c>
       <c r="D833" t="n">
-        <v>3.545</v>
+        <v>3.483</v>
       </c>
       <c r="E833" t="n">
-        <v>3.65</v>
+        <v>3.626</v>
       </c>
       <c r="F833" t="n">
-        <v>3.706</v>
+        <v>3.652</v>
       </c>
       <c r="G833" t="n">
-        <v>3.697</v>
+        <v>3.644</v>
       </c>
       <c r="H833" t="n">
-        <v>3.591</v>
+        <v>3.54</v>
       </c>
       <c r="I833" t="n">
-        <v>3.429</v>
+        <v>3.383</v>
       </c>
       <c r="J833" t="n">
-        <v>3.399</v>
+        <v>3.371</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="B834" t="n">
-        <v>2.6</v>
+        <v>2.445</v>
       </c>
       <c r="C834" t="n">
-        <v>3.506</v>
+        <v>3.393</v>
       </c>
       <c r="D834" t="n">
-        <v>3.674</v>
+        <v>3.545</v>
       </c>
       <c r="E834" t="n">
-        <v>3.753</v>
+        <v>3.65</v>
       </c>
       <c r="F834" t="n">
-        <v>3.834</v>
+        <v>3.706</v>
       </c>
       <c r="G834" t="n">
-        <v>3.803</v>
+        <v>3.697</v>
       </c>
       <c r="H834" t="n">
-        <v>3.665</v>
+        <v>3.591</v>
       </c>
       <c r="I834" t="n">
-        <v>3.495</v>
+        <v>3.429</v>
       </c>
       <c r="J834" t="n">
-        <v>3.461</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="B835" t="n">
-        <v>2.514</v>
+        <v>2.6</v>
       </c>
       <c r="C835" t="n">
-        <v>3.618</v>
+        <v>3.506</v>
       </c>
       <c r="D835" t="n">
-        <v>3.73</v>
+        <v>3.674</v>
       </c>
       <c r="E835" t="n">
-        <v>3.816</v>
+        <v>3.753</v>
       </c>
       <c r="F835" t="n">
-        <v>3.831</v>
+        <v>3.834</v>
       </c>
       <c r="G835" t="n">
-        <v>3.76</v>
+        <v>3.803</v>
       </c>
       <c r="H835" t="n">
-        <v>3.675</v>
+        <v>3.665</v>
       </c>
       <c r="I835" t="n">
-        <v>3.498</v>
+        <v>3.495</v>
       </c>
       <c r="J835" t="n">
-        <v>3.516</v>
+        <v>3.461</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44729</v>
+        <v>44728</v>
       </c>
       <c r="B836" t="n">
-        <v>2.81</v>
+        <v>2.514</v>
       </c>
       <c r="C836" t="n">
-        <v>3.656</v>
+        <v>3.618</v>
       </c>
       <c r="D836" t="n">
-        <v>3.735</v>
+        <v>3.73</v>
       </c>
       <c r="E836" t="n">
-        <v>3.84</v>
+        <v>3.816</v>
       </c>
       <c r="F836" t="n">
-        <v>3.846</v>
+        <v>3.831</v>
       </c>
       <c r="G836" t="n">
-        <v>3.795</v>
+        <v>3.76</v>
       </c>
       <c r="H836" t="n">
-        <v>3.716</v>
+        <v>3.675</v>
       </c>
       <c r="I836" t="n">
-        <v>3.546</v>
+        <v>3.498</v>
       </c>
       <c r="J836" t="n">
-        <v>3.541</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44731</v>
+        <v>44729</v>
       </c>
       <c r="B837" t="n">
         <v>2.81</v>
@@ -27222,22 +27222,22 @@
         <v>3.656</v>
       </c>
       <c r="D837" t="n">
-        <v>3.75</v>
+        <v>3.735</v>
       </c>
       <c r="E837" t="n">
         <v>3.84</v>
       </c>
       <c r="F837" t="n">
-        <v>3.872</v>
+        <v>3.846</v>
       </c>
       <c r="G837" t="n">
         <v>3.795</v>
       </c>
       <c r="H837" t="n">
-        <v>3.72</v>
+        <v>3.716</v>
       </c>
       <c r="I837" t="n">
-        <v>3.57</v>
+        <v>3.546</v>
       </c>
       <c r="J837" t="n">
         <v>3.541</v>
@@ -27245,167 +27245,167 @@
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44732</v>
+        <v>44731</v>
       </c>
       <c r="B838" t="n">
-        <v>2.816</v>
+        <v>2.81</v>
       </c>
       <c r="C838" t="n">
-        <v>3.591</v>
+        <v>3.656</v>
       </c>
       <c r="D838" t="n">
-        <v>3.695</v>
+        <v>3.75</v>
       </c>
       <c r="E838" t="n">
-        <v>3.785</v>
+        <v>3.84</v>
       </c>
       <c r="F838" t="n">
-        <v>3.862</v>
+        <v>3.872</v>
       </c>
       <c r="G838" t="n">
-        <v>3.777</v>
+        <v>3.795</v>
       </c>
       <c r="H838" t="n">
-        <v>3.709</v>
+        <v>3.72</v>
       </c>
       <c r="I838" t="n">
-        <v>3.578</v>
+        <v>3.57</v>
       </c>
       <c r="J838" t="n">
-        <v>3.561</v>
+        <v>3.541</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B839" t="n">
-        <v>2.856</v>
+        <v>2.816</v>
       </c>
       <c r="C839" t="n">
-        <v>3.588</v>
+        <v>3.591</v>
       </c>
       <c r="D839" t="n">
-        <v>3.663</v>
+        <v>3.695</v>
       </c>
       <c r="E839" t="n">
-        <v>3.8</v>
+        <v>3.785</v>
       </c>
       <c r="F839" t="n">
-        <v>3.834</v>
+        <v>3.862</v>
       </c>
       <c r="G839" t="n">
-        <v>3.776</v>
+        <v>3.777</v>
       </c>
       <c r="H839" t="n">
-        <v>3.69</v>
+        <v>3.709</v>
       </c>
       <c r="I839" t="n">
-        <v>3.567</v>
+        <v>3.578</v>
       </c>
       <c r="J839" t="n">
-        <v>3.544</v>
+        <v>3.561</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B840" t="n">
-        <v>2.83</v>
+        <v>2.856</v>
       </c>
       <c r="C840" t="n">
-        <v>3.454</v>
+        <v>3.588</v>
       </c>
       <c r="D840" t="n">
-        <v>3.558</v>
+        <v>3.663</v>
       </c>
       <c r="E840" t="n">
-        <v>3.66</v>
+        <v>3.8</v>
       </c>
       <c r="F840" t="n">
-        <v>3.74</v>
+        <v>3.834</v>
       </c>
       <c r="G840" t="n">
-        <v>3.703</v>
+        <v>3.776</v>
       </c>
       <c r="H840" t="n">
-        <v>3.637</v>
+        <v>3.69</v>
       </c>
       <c r="I840" t="n">
-        <v>3.515</v>
+        <v>3.567</v>
       </c>
       <c r="J840" t="n">
-        <v>3.466</v>
+        <v>3.544</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B841" t="n">
-        <v>2.855</v>
+        <v>2.83</v>
       </c>
       <c r="C841" t="n">
-        <v>3.554</v>
+        <v>3.454</v>
       </c>
       <c r="D841" t="n">
-        <v>3.597</v>
+        <v>3.558</v>
       </c>
       <c r="E841" t="n">
-        <v>3.725</v>
+        <v>3.66</v>
       </c>
       <c r="F841" t="n">
-        <v>3.749</v>
+        <v>3.74</v>
       </c>
       <c r="G841" t="n">
-        <v>3.695</v>
+        <v>3.703</v>
       </c>
       <c r="H841" t="n">
-        <v>3.626</v>
+        <v>3.637</v>
       </c>
       <c r="I841" t="n">
-        <v>3.495</v>
+        <v>3.515</v>
       </c>
       <c r="J841" t="n">
-        <v>3.496</v>
+        <v>3.466</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B842" t="n">
-        <v>2.835</v>
+        <v>2.855</v>
       </c>
       <c r="C842" t="n">
-        <v>3.476</v>
+        <v>3.554</v>
       </c>
       <c r="D842" t="n">
-        <v>3.526</v>
+        <v>3.597</v>
       </c>
       <c r="E842" t="n">
-        <v>3.625</v>
+        <v>3.725</v>
       </c>
       <c r="F842" t="n">
-        <v>3.672</v>
+        <v>3.749</v>
       </c>
       <c r="G842" t="n">
-        <v>3.642</v>
+        <v>3.695</v>
       </c>
       <c r="H842" t="n">
-        <v>3.597</v>
+        <v>3.626</v>
       </c>
       <c r="I842" t="n">
-        <v>3.483</v>
+        <v>3.495</v>
       </c>
       <c r="J842" t="n">
-        <v>3.444</v>
+        <v>3.496</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44737</v>
+        <v>44736</v>
       </c>
       <c r="B843" t="n">
         <v>2.835</v>
@@ -27414,22 +27414,22 @@
         <v>3.476</v>
       </c>
       <c r="D843" t="n">
-        <v>3.51</v>
+        <v>3.526</v>
       </c>
       <c r="E843" t="n">
         <v>3.625</v>
       </c>
       <c r="F843" t="n">
-        <v>3.662</v>
+        <v>3.672</v>
       </c>
       <c r="G843" t="n">
-        <v>3.625</v>
+        <v>3.642</v>
       </c>
       <c r="H843" t="n">
-        <v>3.566</v>
+        <v>3.597</v>
       </c>
       <c r="I843" t="n">
-        <v>3.472</v>
+        <v>3.483</v>
       </c>
       <c r="J843" t="n">
         <v>3.444</v>
@@ -27437,7 +27437,7 @@
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B844" t="n">
         <v>2.835</v>
@@ -27469,167 +27469,167 @@
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B845" t="n">
-        <v>2.871</v>
+        <v>2.835</v>
       </c>
       <c r="C845" t="n">
-        <v>3.513</v>
+        <v>3.476</v>
       </c>
       <c r="D845" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="E845" t="n">
-        <v>3.681</v>
+        <v>3.625</v>
       </c>
       <c r="F845" t="n">
-        <v>3.728</v>
+        <v>3.662</v>
       </c>
       <c r="G845" t="n">
-        <v>3.724</v>
+        <v>3.625</v>
       </c>
       <c r="H845" t="n">
-        <v>3.637</v>
+        <v>3.566</v>
       </c>
       <c r="I845" t="n">
-        <v>3.532</v>
+        <v>3.472</v>
       </c>
       <c r="J845" t="n">
-        <v>3.506</v>
+        <v>3.444</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B846" t="n">
-        <v>2.891</v>
+        <v>2.871</v>
       </c>
       <c r="C846" t="n">
-        <v>3.525</v>
+        <v>3.513</v>
       </c>
       <c r="D846" t="n">
-        <v>3.539</v>
+        <v>3.57</v>
       </c>
       <c r="E846" t="n">
-        <v>3.667</v>
+        <v>3.681</v>
       </c>
       <c r="F846" t="n">
-        <v>3.673</v>
+        <v>3.728</v>
       </c>
       <c r="G846" t="n">
-        <v>3.664</v>
+        <v>3.724</v>
       </c>
       <c r="H846" t="n">
-        <v>3.586</v>
+        <v>3.637</v>
       </c>
       <c r="I846" t="n">
-        <v>3.493</v>
+        <v>3.532</v>
       </c>
       <c r="J846" t="n">
-        <v>3.477</v>
+        <v>3.506</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B847" t="n">
-        <v>2.92</v>
+        <v>2.891</v>
       </c>
       <c r="C847" t="n">
         <v>3.525</v>
       </c>
       <c r="D847" t="n">
-        <v>3.547</v>
+        <v>3.539</v>
       </c>
       <c r="E847" t="n">
-        <v>3.658</v>
+        <v>3.667</v>
       </c>
       <c r="F847" t="n">
-        <v>3.683</v>
+        <v>3.673</v>
       </c>
       <c r="G847" t="n">
-        <v>3.667</v>
+        <v>3.664</v>
       </c>
       <c r="H847" t="n">
-        <v>3.605</v>
+        <v>3.586</v>
       </c>
       <c r="I847" t="n">
-        <v>3.504</v>
+        <v>3.493</v>
       </c>
       <c r="J847" t="n">
-        <v>3.479</v>
+        <v>3.477</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B848" t="n">
-        <v>3.006</v>
+        <v>2.92</v>
       </c>
       <c r="C848" t="n">
-        <v>3.541</v>
+        <v>3.525</v>
       </c>
       <c r="D848" t="n">
-        <v>3.549</v>
+        <v>3.547</v>
       </c>
       <c r="E848" t="n">
-        <v>3.642</v>
+        <v>3.658</v>
       </c>
       <c r="F848" t="n">
-        <v>3.658</v>
+        <v>3.683</v>
       </c>
       <c r="G848" t="n">
-        <v>3.637</v>
+        <v>3.667</v>
       </c>
       <c r="H848" t="n">
-        <v>3.587</v>
+        <v>3.605</v>
       </c>
       <c r="I848" t="n">
-        <v>3.483</v>
+        <v>3.504</v>
       </c>
       <c r="J848" t="n">
-        <v>3.434</v>
+        <v>3.479</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B849" t="n">
-        <v>2.961</v>
+        <v>3.006</v>
       </c>
       <c r="C849" t="n">
-        <v>3.415</v>
+        <v>3.541</v>
       </c>
       <c r="D849" t="n">
-        <v>3.438</v>
+        <v>3.549</v>
       </c>
       <c r="E849" t="n">
-        <v>3.495</v>
+        <v>3.642</v>
       </c>
       <c r="F849" t="n">
-        <v>3.495</v>
+        <v>3.658</v>
       </c>
       <c r="G849" t="n">
-        <v>3.489</v>
+        <v>3.637</v>
       </c>
       <c r="H849" t="n">
-        <v>3.451</v>
+        <v>3.587</v>
       </c>
       <c r="I849" t="n">
-        <v>3.324</v>
+        <v>3.483</v>
       </c>
       <c r="J849" t="n">
-        <v>3.292</v>
+        <v>3.434</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B850" t="n">
         <v>2.961</v>
@@ -27638,22 +27638,22 @@
         <v>3.415</v>
       </c>
       <c r="D850" t="n">
-        <v>3.44</v>
+        <v>3.438</v>
       </c>
       <c r="E850" t="n">
         <v>3.495</v>
       </c>
       <c r="F850" t="n">
-        <v>3.5</v>
+        <v>3.495</v>
       </c>
       <c r="G850" t="n">
-        <v>3.495</v>
+        <v>3.489</v>
       </c>
       <c r="H850" t="n">
-        <v>3.44</v>
+        <v>3.451</v>
       </c>
       <c r="I850" t="n">
-        <v>3.32</v>
+        <v>3.324</v>
       </c>
       <c r="J850" t="n">
         <v>3.292</v>
@@ -27661,7 +27661,7 @@
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B851" t="n">
         <v>2.961</v>
@@ -27693,127 +27693,127 @@
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B852" t="n">
-        <v>2.97</v>
+        <v>2.961</v>
       </c>
       <c r="C852" t="n">
-        <v>3.42</v>
+        <v>3.415</v>
       </c>
       <c r="D852" t="n">
-        <v>3.445</v>
+        <v>3.44</v>
       </c>
       <c r="E852" t="n">
-        <v>3.48</v>
+        <v>3.495</v>
       </c>
       <c r="F852" t="n">
-        <v>3.504</v>
+        <v>3.5</v>
       </c>
       <c r="G852" t="n">
-        <v>3.499</v>
+        <v>3.495</v>
       </c>
       <c r="H852" t="n">
-        <v>3.428</v>
+        <v>3.44</v>
       </c>
       <c r="I852" t="n">
-        <v>3.308</v>
+        <v>3.32</v>
       </c>
       <c r="J852" t="n">
-        <v>3.251</v>
+        <v>3.292</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B853" t="n">
-        <v>2.947</v>
+        <v>2.97</v>
       </c>
       <c r="C853" t="n">
-        <v>3.316</v>
+        <v>3.42</v>
       </c>
       <c r="D853" t="n">
-        <v>3.315</v>
+        <v>3.445</v>
       </c>
       <c r="E853" t="n">
-        <v>3.349</v>
+        <v>3.48</v>
       </c>
       <c r="F853" t="n">
-        <v>3.38</v>
+        <v>3.504</v>
       </c>
       <c r="G853" t="n">
-        <v>3.388</v>
+        <v>3.499</v>
       </c>
       <c r="H853" t="n">
-        <v>3.306</v>
+        <v>3.428</v>
       </c>
       <c r="I853" t="n">
-        <v>3.176</v>
+        <v>3.308</v>
       </c>
       <c r="J853" t="n">
-        <v>3.131</v>
+        <v>3.251</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B854" t="n">
-        <v>2.92</v>
+        <v>2.947</v>
       </c>
       <c r="C854" t="n">
-        <v>3.268</v>
+        <v>3.316</v>
       </c>
       <c r="D854" t="n">
-        <v>3.223</v>
+        <v>3.315</v>
       </c>
       <c r="E854" t="n">
-        <v>3.285</v>
+        <v>3.349</v>
       </c>
       <c r="F854" t="n">
-        <v>3.271</v>
+        <v>3.38</v>
       </c>
       <c r="G854" t="n">
-        <v>3.282</v>
+        <v>3.388</v>
       </c>
       <c r="H854" t="n">
-        <v>3.224</v>
+        <v>3.306</v>
       </c>
       <c r="I854" t="n">
-        <v>3.112</v>
+        <v>3.176</v>
       </c>
       <c r="J854" t="n">
-        <v>3.089</v>
+        <v>3.131</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B855" t="n">
-        <v>2.952</v>
+        <v>2.92</v>
       </c>
       <c r="C855" t="n">
-        <v>3.286</v>
+        <v>3.268</v>
       </c>
       <c r="D855" t="n">
-        <v>3.249</v>
+        <v>3.223</v>
       </c>
       <c r="E855" t="n">
-        <v>3.3</v>
+        <v>3.285</v>
       </c>
       <c r="F855" t="n">
-        <v>3.279</v>
+        <v>3.271</v>
       </c>
       <c r="G855" t="n">
-        <v>3.291</v>
+        <v>3.282</v>
       </c>
       <c r="H855" t="n">
-        <v>3.229</v>
+        <v>3.224</v>
       </c>
       <c r="I855" t="n">
-        <v>3.12</v>
+        <v>3.112</v>
       </c>
       <c r="J855" t="n">
         <v>3.089</v>
@@ -27821,39 +27821,39 @@
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B856" t="n">
-        <v>2.96</v>
+        <v>2.952</v>
       </c>
       <c r="C856" t="n">
-        <v>3.318</v>
+        <v>3.286</v>
       </c>
       <c r="D856" t="n">
-        <v>3.315</v>
+        <v>3.249</v>
       </c>
       <c r="E856" t="n">
-        <v>3.341</v>
+        <v>3.3</v>
       </c>
       <c r="F856" t="n">
-        <v>3.346</v>
+        <v>3.279</v>
       </c>
       <c r="G856" t="n">
-        <v>3.365</v>
+        <v>3.291</v>
       </c>
       <c r="H856" t="n">
-        <v>3.285</v>
+        <v>3.229</v>
       </c>
       <c r="I856" t="n">
-        <v>3.182</v>
+        <v>3.12</v>
       </c>
       <c r="J856" t="n">
-        <v>3.133</v>
+        <v>3.089</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44752</v>
+        <v>44750</v>
       </c>
       <c r="B857" t="n">
         <v>2.96</v>
@@ -27862,22 +27862,22 @@
         <v>3.318</v>
       </c>
       <c r="D857" t="n">
-        <v>3.316</v>
+        <v>3.315</v>
       </c>
       <c r="E857" t="n">
         <v>3.341</v>
       </c>
       <c r="F857" t="n">
-        <v>3.342</v>
+        <v>3.346</v>
       </c>
       <c r="G857" t="n">
-        <v>3.36</v>
+        <v>3.365</v>
       </c>
       <c r="H857" t="n">
-        <v>3.278</v>
+        <v>3.285</v>
       </c>
       <c r="I857" t="n">
-        <v>3.175</v>
+        <v>3.182</v>
       </c>
       <c r="J857" t="n">
         <v>3.133</v>
@@ -27885,159 +27885,159 @@
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B858" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="C858" t="n">
-        <v>3.308</v>
+        <v>3.318</v>
       </c>
       <c r="D858" t="n">
-        <v>3.324</v>
+        <v>3.316</v>
       </c>
       <c r="E858" t="n">
-        <v>3.375</v>
+        <v>3.341</v>
       </c>
       <c r="F858" t="n">
-        <v>3.374</v>
+        <v>3.342</v>
       </c>
       <c r="G858" t="n">
-        <v>3.385</v>
+        <v>3.36</v>
       </c>
       <c r="H858" t="n">
-        <v>3.304</v>
+        <v>3.278</v>
       </c>
       <c r="I858" t="n">
-        <v>3.208</v>
+        <v>3.175</v>
       </c>
       <c r="J858" t="n">
-        <v>3.165</v>
+        <v>3.133</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B859" t="n">
-        <v>2.985</v>
+        <v>2.99</v>
       </c>
       <c r="C859" t="n">
-        <v>3.259</v>
+        <v>3.308</v>
       </c>
       <c r="D859" t="n">
-        <v>3.294</v>
+        <v>3.324</v>
       </c>
       <c r="E859" t="n">
-        <v>3.33</v>
+        <v>3.375</v>
       </c>
       <c r="F859" t="n">
-        <v>3.351</v>
+        <v>3.374</v>
       </c>
       <c r="G859" t="n">
-        <v>3.355</v>
+        <v>3.385</v>
       </c>
       <c r="H859" t="n">
-        <v>3.264</v>
+        <v>3.304</v>
       </c>
       <c r="I859" t="n">
-        <v>3.169</v>
+        <v>3.208</v>
       </c>
       <c r="J859" t="n">
-        <v>3.103</v>
+        <v>3.165</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B860" t="n">
-        <v>2.965</v>
+        <v>2.985</v>
       </c>
       <c r="C860" t="n">
-        <v>3.177</v>
+        <v>3.259</v>
       </c>
       <c r="D860" t="n">
-        <v>3.212</v>
+        <v>3.294</v>
       </c>
       <c r="E860" t="n">
-        <v>3.275</v>
+        <v>3.33</v>
       </c>
       <c r="F860" t="n">
-        <v>3.276</v>
+        <v>3.351</v>
       </c>
       <c r="G860" t="n">
-        <v>3.303</v>
+        <v>3.355</v>
       </c>
       <c r="H860" t="n">
-        <v>3.205</v>
+        <v>3.264</v>
       </c>
       <c r="I860" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="J860" t="n">
         <v>3.103</v>
-      </c>
-      <c r="J860" t="n">
-        <v>3.048</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B861" t="n">
-        <v>3.007</v>
+        <v>2.965</v>
       </c>
       <c r="C861" t="n">
-        <v>3.215</v>
+        <v>3.177</v>
       </c>
       <c r="D861" t="n">
-        <v>3.263</v>
+        <v>3.212</v>
       </c>
       <c r="E861" t="n">
-        <v>3.3</v>
+        <v>3.275</v>
       </c>
       <c r="F861" t="n">
-        <v>3.322</v>
+        <v>3.276</v>
       </c>
       <c r="G861" t="n">
-        <v>3.305</v>
+        <v>3.303</v>
       </c>
       <c r="H861" t="n">
-        <v>3.166</v>
+        <v>3.205</v>
       </c>
       <c r="I861" t="n">
-        <v>3.06</v>
+        <v>3.103</v>
       </c>
       <c r="J861" t="n">
-        <v>2.998</v>
+        <v>3.048</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B862" t="n">
-        <v>2.991</v>
+        <v>3.007</v>
       </c>
       <c r="C862" t="n">
-        <v>3.159</v>
+        <v>3.215</v>
       </c>
       <c r="D862" t="n">
-        <v>3.216</v>
+        <v>3.263</v>
       </c>
       <c r="E862" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="F862" t="n">
-        <v>3.28</v>
+        <v>3.322</v>
       </c>
       <c r="G862" t="n">
-        <v>3.257</v>
+        <v>3.305</v>
       </c>
       <c r="H862" t="n">
-        <v>3.181</v>
+        <v>3.166</v>
       </c>
       <c r="I862" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="J862" t="n">
         <v>2.998</v>
@@ -28045,7 +28045,7 @@
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44759</v>
+        <v>44757</v>
       </c>
       <c r="B863" t="n">
         <v>2.991</v>
@@ -28054,22 +28054,22 @@
         <v>3.159</v>
       </c>
       <c r="D863" t="n">
-        <v>3.191</v>
+        <v>3.216</v>
       </c>
       <c r="E863" t="n">
         <v>3.24</v>
       </c>
       <c r="F863" t="n">
-        <v>3.256</v>
+        <v>3.28</v>
       </c>
       <c r="G863" t="n">
-        <v>3.222</v>
+        <v>3.257</v>
       </c>
       <c r="H863" t="n">
-        <v>3.153</v>
+        <v>3.181</v>
       </c>
       <c r="I863" t="n">
-        <v>3.04</v>
+        <v>3.066</v>
       </c>
       <c r="J863" t="n">
         <v>2.998</v>
@@ -28077,127 +28077,127 @@
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B864" t="n">
-        <v>2.983</v>
+        <v>2.991</v>
       </c>
       <c r="C864" t="n">
-        <v>3.194</v>
+        <v>3.159</v>
       </c>
       <c r="D864" t="n">
-        <v>3.208</v>
+        <v>3.191</v>
       </c>
       <c r="E864" t="n">
-        <v>3.273</v>
+        <v>3.24</v>
       </c>
       <c r="F864" t="n">
-        <v>3.275</v>
+        <v>3.256</v>
       </c>
       <c r="G864" t="n">
-        <v>3.264</v>
+        <v>3.222</v>
       </c>
       <c r="H864" t="n">
-        <v>3.21</v>
+        <v>3.153</v>
       </c>
       <c r="I864" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="J864" t="n">
-        <v>3.08</v>
+        <v>2.998</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B865" t="n">
-        <v>2.955</v>
+        <v>2.983</v>
       </c>
       <c r="C865" t="n">
-        <v>3.168</v>
+        <v>3.194</v>
       </c>
       <c r="D865" t="n">
-        <v>3.204</v>
+        <v>3.208</v>
       </c>
       <c r="E865" t="n">
-        <v>3.24</v>
+        <v>3.273</v>
       </c>
       <c r="F865" t="n">
-        <v>3.265</v>
+        <v>3.275</v>
       </c>
       <c r="G865" t="n">
-        <v>3.268</v>
+        <v>3.264</v>
       </c>
       <c r="H865" t="n">
-        <v>3.206</v>
+        <v>3.21</v>
       </c>
       <c r="I865" t="n">
-        <v>3.138</v>
+        <v>3.11</v>
       </c>
       <c r="J865" t="n">
-        <v>3.088</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B866" t="n">
-        <v>2.975</v>
+        <v>2.955</v>
       </c>
       <c r="C866" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="D866" t="n">
+        <v>3.204</v>
+      </c>
+      <c r="E866" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F866" t="n">
         <v>3.265</v>
       </c>
-      <c r="D866" t="n">
-        <v>3.298</v>
-      </c>
-      <c r="E866" t="n">
-        <v>3.353</v>
-      </c>
-      <c r="F866" t="n">
-        <v>3.378</v>
-      </c>
       <c r="G866" t="n">
-        <v>3.363</v>
+        <v>3.268</v>
       </c>
       <c r="H866" t="n">
-        <v>3.288</v>
+        <v>3.206</v>
       </c>
       <c r="I866" t="n">
-        <v>3.208</v>
+        <v>3.138</v>
       </c>
       <c r="J866" t="n">
-        <v>3.158</v>
+        <v>3.088</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B867" t="n">
-        <v>2.939</v>
+        <v>2.975</v>
       </c>
       <c r="C867" t="n">
-        <v>3.271</v>
+        <v>3.265</v>
       </c>
       <c r="D867" t="n">
-        <v>3.294</v>
+        <v>3.298</v>
       </c>
       <c r="E867" t="n">
-        <v>3.365</v>
+        <v>3.353</v>
       </c>
       <c r="F867" t="n">
-        <v>3.37</v>
+        <v>3.378</v>
       </c>
       <c r="G867" t="n">
-        <v>3.374</v>
+        <v>3.363</v>
       </c>
       <c r="H867" t="n">
-        <v>3.282</v>
+        <v>3.288</v>
       </c>
       <c r="I867" t="n">
-        <v>3.191</v>
+        <v>3.208</v>
       </c>
       <c r="J867" t="n">
         <v>3.158</v>
@@ -28205,34 +28205,130 @@
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B868" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="C868" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="D868" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="E868" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="F868" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G868" t="n">
+        <v>3.374</v>
+      </c>
+      <c r="H868" t="n">
+        <v>3.282</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="J868" t="n">
+        <v>3.158</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
         <v>44764</v>
       </c>
-      <c r="B868" t="n">
+      <c r="B869" t="n">
         <v>2.949</v>
       </c>
-      <c r="C868" t="n">
+      <c r="C869" t="n">
         <v>3.201</v>
       </c>
-      <c r="D868" t="n">
+      <c r="D869" t="n">
         <v>3.218</v>
       </c>
-      <c r="E868" t="n">
+      <c r="E869" t="n">
         <v>3.278</v>
       </c>
-      <c r="F868" t="n">
+      <c r="F869" t="n">
         <v>3.301</v>
       </c>
-      <c r="G868" t="n">
+      <c r="G869" t="n">
         <v>3.303</v>
       </c>
-      <c r="H868" t="n">
+      <c r="H869" t="n">
         <v>3.239</v>
       </c>
-      <c r="I868" t="n">
+      <c r="I869" t="n">
         <v>3.161</v>
       </c>
-      <c r="J868" t="n">
+      <c r="J869" t="n">
         <v>3.117</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>44765</v>
+      </c>
+      <c r="B870" t="n">
+        <v>2.949</v>
+      </c>
+      <c r="C870" t="n">
+        <v>3.201</v>
+      </c>
+      <c r="D870" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="E870" t="n">
+        <v>3.278</v>
+      </c>
+      <c r="F870" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G870" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="H870" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="J870" t="n">
+        <v>3.117</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B871" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="C871" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D871" t="n">
+        <v>3.153</v>
+      </c>
+      <c r="E871" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F871" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="G871" t="n">
+        <v>3.213</v>
+      </c>
+      <c r="H871" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="I871" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="J871" t="n">
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J871"/>
+  <dimension ref="A1:J872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28331,6 +28331,38 @@
         <v>3.04</v>
       </c>
     </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B872" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="C872" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="D872" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E872" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="F872" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="G872" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="H872" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="I872" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="J872" t="n">
+        <v>3.025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J872"/>
+  <dimension ref="A1:J873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28363,6 +28363,38 @@
         <v>3.025</v>
       </c>
     </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B873" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C873" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="D873" t="n">
+        <v>3.101</v>
+      </c>
+      <c r="E873" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="F873" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="G873" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="H873" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="I873" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="J873" t="n">
+        <v>2.983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J873"/>
+  <dimension ref="A1:J874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28395,6 +28395,38 @@
         <v>2.983</v>
       </c>
     </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B874" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="C874" t="n">
+        <v>3.148</v>
+      </c>
+      <c r="D874" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="E874" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="F874" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="G874" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="H874" t="n">
+        <v>3.153</v>
+      </c>
+      <c r="I874" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="J874" t="n">
+        <v>3.055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J874"/>
+  <dimension ref="A1:J875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28427,6 +28427,38 @@
         <v>3.055</v>
       </c>
     </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B875" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C875" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="D875" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E875" t="n">
+        <v>3.068</v>
+      </c>
+      <c r="F875" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="G875" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="H875" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="I875" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="J875" t="n">
+        <v>3.012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J875"/>
+  <dimension ref="A1:J878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28459,6 +28459,102 @@
         <v>3.012</v>
       </c>
     </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>44772</v>
+      </c>
+      <c r="B876" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C876" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="D876" t="n">
+        <v>2.998</v>
+      </c>
+      <c r="E876" t="n">
+        <v>3.068</v>
+      </c>
+      <c r="F876" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="G876" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="H876" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I876" t="n">
+        <v>3.054</v>
+      </c>
+      <c r="J876" t="n">
+        <v>3.012</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B877" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C877" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="D877" t="n">
+        <v>2.998</v>
+      </c>
+      <c r="E877" t="n">
+        <v>3.068</v>
+      </c>
+      <c r="F877" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="G877" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="H877" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I877" t="n">
+        <v>3.054</v>
+      </c>
+      <c r="J877" t="n">
+        <v>3.012</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B878" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="C878" t="n">
+        <v>3.094</v>
+      </c>
+      <c r="D878" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="E878" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="F878" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G878" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="H878" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="I878" t="n">
+        <v>3.152</v>
+      </c>
+      <c r="J878" t="n">
+        <v>3.108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J878"/>
+  <dimension ref="A1:J879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28555,6 +28555,38 @@
         <v>3.108</v>
       </c>
     </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B879" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="C879" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="D879" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="E879" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F879" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="G879" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="H879" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="I879" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J879" t="n">
+        <v>3.064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J879"/>
+  <dimension ref="A1:J880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28587,6 +28587,38 @@
         <v>3.064</v>
       </c>
     </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B880" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C880" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="D880" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="E880" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="F880" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="G880" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="H880" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="I880" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="J880" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J880"/>
+  <dimension ref="A1:J881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28619,6 +28619,38 @@
         <v>3.05</v>
       </c>
     </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B881" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C881" t="n">
+        <v>3.107</v>
+      </c>
+      <c r="D881" t="n">
+        <v>3.107</v>
+      </c>
+      <c r="E881" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="F881" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="G881" t="n">
+        <v>3.144</v>
+      </c>
+      <c r="H881" t="n">
+        <v>3.152</v>
+      </c>
+      <c r="I881" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="J881" t="n">
+        <v>3.103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J881"/>
+  <dimension ref="A1:J882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28400,7 +28400,7 @@
         <v>44770</v>
       </c>
       <c r="B874" t="n">
-        <v>2.937</v>
+        <v>2.94</v>
       </c>
       <c r="C874" t="n">
         <v>3.148</v>
@@ -28649,6 +28649,38 @@
       </c>
       <c r="J881" t="n">
         <v>3.103</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B882" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="C882" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="D882" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E882" t="n">
+        <v>3.092</v>
+      </c>
+      <c r="F882" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="G882" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="H882" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="I882" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="J882" t="n">
+        <v>3.013</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J882"/>
+  <dimension ref="A1:J886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28683,6 +28683,134 @@
         <v>3.013</v>
       </c>
     </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>44779</v>
+      </c>
+      <c r="B883" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="C883" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="D883" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="E883" t="n">
+        <v>3.092</v>
+      </c>
+      <c r="F883" t="n">
+        <v>3.095</v>
+      </c>
+      <c r="G883" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="H883" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="J883" t="n">
+        <v>3.013</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B884" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="C884" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="D884" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="E884" t="n">
+        <v>3.092</v>
+      </c>
+      <c r="F884" t="n">
+        <v>3.095</v>
+      </c>
+      <c r="G884" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="H884" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="J884" t="n">
+        <v>3.013</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B885" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="C885" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="D885" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E885" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F885" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="G885" t="n">
+        <v>3.178</v>
+      </c>
+      <c r="H885" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="I885" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="J885" t="n">
+        <v>3.025</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B886" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="C886" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="D886" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="E886" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="F886" t="n">
+        <v>3.152</v>
+      </c>
+      <c r="G886" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="H886" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="I886" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="J886" t="n">
+        <v>3.038</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J886"/>
+  <dimension ref="A1:J887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28811,6 +28811,38 @@
         <v>3.038</v>
       </c>
     </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B887" t="n">
+        <v>2.903</v>
+      </c>
+      <c r="C887" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D887" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="E887" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="F887" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="G887" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="H887" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="I887" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="J887" t="n">
+        <v>3.103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J887"/>
+  <dimension ref="A1:J888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28843,6 +28843,38 @@
         <v>3.103</v>
       </c>
     </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B888" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C888" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D888" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E888" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="F888" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="G888" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="H888" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="I888" t="n">
+        <v>3.185</v>
+      </c>
+      <c r="J888" t="n">
+        <v>3.129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J888"/>
+  <dimension ref="A1:J889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28875,6 +28875,38 @@
         <v>3.129</v>
       </c>
     </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B889" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C889" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="D889" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E889" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="F889" t="n">
+        <v>3.254</v>
+      </c>
+      <c r="G889" t="n">
+        <v>3.303</v>
+      </c>
+      <c r="H889" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I889" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="J889" t="n">
+        <v>3.145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J889"/>
+  <dimension ref="A1:J892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28907,6 +28907,102 @@
         <v>3.145</v>
       </c>
     </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>44786</v>
+      </c>
+      <c r="B890" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C890" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="D890" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="E890" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="F890" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="G890" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="H890" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="I890" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J890" t="n">
+        <v>3.145</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B891" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C891" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="D891" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="E891" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="F891" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="G891" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="H891" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="I891" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J891" t="n">
+        <v>3.145</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B892" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C892" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="D892" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="E892" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="F892" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="G892" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="H892" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="I892" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J892" t="n">
+        <v>3.145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J892"/>
+  <dimension ref="A1:J893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29003,6 +29003,38 @@
         <v>3.145</v>
       </c>
     </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B893" t="n">
+        <v>2.847</v>
+      </c>
+      <c r="C893" t="n">
+        <v>3.043</v>
+      </c>
+      <c r="D893" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="E893" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="F893" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G893" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="H893" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="I893" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J893" t="n">
+        <v>3.055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J893"/>
+  <dimension ref="A1:J894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29035,6 +29035,38 @@
         <v>3.055</v>
       </c>
     </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B894" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C894" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="D894" t="n">
+        <v>3.088</v>
+      </c>
+      <c r="E894" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F894" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="G894" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H894" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="I894" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="J894" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J894"/>
+  <dimension ref="A1:J895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29067,6 +29067,38 @@
         <v>3.08</v>
       </c>
     </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B895" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C895" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="D895" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E895" t="n">
+        <v>3.187</v>
+      </c>
+      <c r="F895" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="G895" t="n">
+        <v>3.221</v>
+      </c>
+      <c r="H895" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="I895" t="n">
+        <v>3.152</v>
+      </c>
+      <c r="J895" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J895"/>
+  <dimension ref="A1:J896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29099,6 +29099,38 @@
         <v>3.11</v>
       </c>
     </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B896" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="C896" t="n">
+        <v>3.148</v>
+      </c>
+      <c r="D896" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="E896" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="F896" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G896" t="n">
+        <v>3.312</v>
+      </c>
+      <c r="H896" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="I896" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="J896" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J896"/>
+  <dimension ref="A1:J899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29131,6 +29131,102 @@
         <v>3.16</v>
       </c>
     </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>44793</v>
+      </c>
+      <c r="B897" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="C897" t="n">
+        <v>3.148</v>
+      </c>
+      <c r="D897" t="n">
+        <v>3.192</v>
+      </c>
+      <c r="E897" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="F897" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="G897" t="n">
+        <v>3.302</v>
+      </c>
+      <c r="H897" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I897" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="J897" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B898" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="C898" t="n">
+        <v>3.148</v>
+      </c>
+      <c r="D898" t="n">
+        <v>3.192</v>
+      </c>
+      <c r="E898" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="F898" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="G898" t="n">
+        <v>3.302</v>
+      </c>
+      <c r="H898" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I898" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="J898" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B899" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C899" t="n">
+        <v>3.213</v>
+      </c>
+      <c r="D899" t="n">
+        <v>3.255</v>
+      </c>
+      <c r="E899" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="F899" t="n">
+        <v>3.323</v>
+      </c>
+      <c r="G899" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H899" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="I899" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="J899" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J899"/>
+  <dimension ref="A1:J900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29227,6 +29227,38 @@
         <v>3.19</v>
       </c>
     </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B900" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="C900" t="n">
+        <v>3.245</v>
+      </c>
+      <c r="D900" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E900" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F900" t="n">
+        <v>3.352</v>
+      </c>
+      <c r="G900" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="H900" t="n">
+        <v>3.344</v>
+      </c>
+      <c r="I900" t="n">
+        <v>3.298</v>
+      </c>
+      <c r="J900" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J900"/>
+  <dimension ref="A1:J901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29203,7 +29203,7 @@
         <v>2.95</v>
       </c>
       <c r="C899" t="n">
-        <v>3.213</v>
+        <v>3.195</v>
       </c>
       <c r="D899" t="n">
         <v>3.255</v>
@@ -29257,6 +29257,38 @@
       </c>
       <c r="J900" t="n">
         <v>3.23</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B901" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C901" t="n">
+        <v>3.295</v>
+      </c>
+      <c r="D901" t="n">
+        <v>3.309</v>
+      </c>
+      <c r="E901" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="F901" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G901" t="n">
+        <v>3.433</v>
+      </c>
+      <c r="H901" t="n">
+        <v>3.378</v>
+      </c>
+      <c r="I901" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="J901" t="n">
+        <v>3.295</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J901"/>
+  <dimension ref="A1:J902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29291,6 +29291,38 @@
         <v>3.295</v>
       </c>
     </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B902" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="C902" t="n">
+        <v>3.536</v>
+      </c>
+      <c r="D902" t="n">
+        <v>3.531</v>
+      </c>
+      <c r="E902" t="n">
+        <v>3.595</v>
+      </c>
+      <c r="F902" t="n">
+        <v>3.598</v>
+      </c>
+      <c r="G902" t="n">
+        <v>3.595</v>
+      </c>
+      <c r="H902" t="n">
+        <v>3.521</v>
+      </c>
+      <c r="I902" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="J902" t="n">
+        <v>3.415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J902"/>
+  <dimension ref="A1:J903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29323,6 +29323,38 @@
         <v>3.415</v>
       </c>
     </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B903" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="C903" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="D903" t="n">
+        <v>3.523</v>
+      </c>
+      <c r="E903" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F903" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G903" t="n">
+        <v>3.614</v>
+      </c>
+      <c r="H903" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I903" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J903" t="n">
+        <v>3.455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J903"/>
+  <dimension ref="A1:J906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29355,6 +29355,102 @@
         <v>3.455</v>
       </c>
     </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>44800</v>
+      </c>
+      <c r="B904" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="C904" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="D904" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="E904" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F904" t="n">
+        <v>3.632</v>
+      </c>
+      <c r="G904" t="n">
+        <v>3.621</v>
+      </c>
+      <c r="H904" t="n">
+        <v>3.561</v>
+      </c>
+      <c r="I904" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="J904" t="n">
+        <v>3.455</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B905" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="C905" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="D905" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="E905" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F905" t="n">
+        <v>3.632</v>
+      </c>
+      <c r="G905" t="n">
+        <v>3.621</v>
+      </c>
+      <c r="H905" t="n">
+        <v>3.561</v>
+      </c>
+      <c r="I905" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="J905" t="n">
+        <v>3.455</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B906" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="C906" t="n">
+        <v>3.696</v>
+      </c>
+      <c r="D906" t="n">
+        <v>3.649</v>
+      </c>
+      <c r="E906" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="F906" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G906" t="n">
+        <v>3.715</v>
+      </c>
+      <c r="H906" t="n">
+        <v>3.658</v>
+      </c>
+      <c r="I906" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="J906" t="n">
+        <v>3.531</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J906"/>
+  <dimension ref="A1:J907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29451,6 +29451,38 @@
         <v>3.531</v>
       </c>
     </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B907" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C907" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="D907" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="E907" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="F907" t="n">
+        <v>3.741</v>
+      </c>
+      <c r="G907" t="n">
+        <v>3.695</v>
+      </c>
+      <c r="H907" t="n">
+        <v>3.611</v>
+      </c>
+      <c r="I907" t="n">
+        <v>3.555</v>
+      </c>
+      <c r="J907" t="n">
+        <v>3.497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J907"/>
+  <dimension ref="A1:J908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29483,6 +29483,38 @@
         <v>3.497</v>
       </c>
     </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B908" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C908" t="n">
+        <v>3.696</v>
+      </c>
+      <c r="D908" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="E908" t="n">
+        <v>3.767</v>
+      </c>
+      <c r="F908" t="n">
+        <v>3.802</v>
+      </c>
+      <c r="G908" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="H908" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="I908" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J908" t="n">
+        <v>3.515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J908"/>
+  <dimension ref="A1:J909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29515,6 +29515,38 @@
         <v>3.515</v>
       </c>
     </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B909" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C909" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="D909" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="E909" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F909" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="G909" t="n">
+        <v>3.799</v>
+      </c>
+      <c r="H909" t="n">
+        <v>3.696</v>
+      </c>
+      <c r="I909" t="n">
+        <v>3.599</v>
+      </c>
+      <c r="J909" t="n">
+        <v>3.565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J909"/>
+  <dimension ref="A1:J910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29547,6 +29547,38 @@
         <v>3.565</v>
       </c>
     </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B910" t="n">
+        <v>3.245</v>
+      </c>
+      <c r="C910" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="D910" t="n">
+        <v>3.678</v>
+      </c>
+      <c r="E910" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F910" t="n">
+        <v>3.772</v>
+      </c>
+      <c r="G910" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="H910" t="n">
+        <v>3.676</v>
+      </c>
+      <c r="I910" t="n">
+        <v>3.595</v>
+      </c>
+      <c r="J910" t="n">
+        <v>3.537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J910"/>
+  <dimension ref="A1:J913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29579,6 +29579,102 @@
         <v>3.537</v>
       </c>
     </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>44807</v>
+      </c>
+      <c r="B911" t="n">
+        <v>3.245</v>
+      </c>
+      <c r="C911" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="D911" t="n">
+        <v>3.682</v>
+      </c>
+      <c r="E911" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F911" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G911" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="H911" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="I911" t="n">
+        <v>3.592</v>
+      </c>
+      <c r="J911" t="n">
+        <v>3.537</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B912" t="n">
+        <v>3.245</v>
+      </c>
+      <c r="C912" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="D912" t="n">
+        <v>3.682</v>
+      </c>
+      <c r="E912" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F912" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G912" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="H912" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="I912" t="n">
+        <v>3.592</v>
+      </c>
+      <c r="J912" t="n">
+        <v>3.537</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B913" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="C913" t="n">
+        <v>3.605</v>
+      </c>
+      <c r="D913" t="n">
+        <v>3.616</v>
+      </c>
+      <c r="E913" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="F913" t="n">
+        <v>3.686</v>
+      </c>
+      <c r="G913" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="H913" t="n">
+        <v>3.591</v>
+      </c>
+      <c r="I913" t="n">
+        <v>3.515</v>
+      </c>
+      <c r="J913" t="n">
+        <v>3.455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J913"/>
+  <dimension ref="A1:J914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29675,6 +29675,38 @@
         <v>3.455</v>
       </c>
     </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B914" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="C914" t="n">
+        <v>3.665</v>
+      </c>
+      <c r="D914" t="n">
+        <v>3.683</v>
+      </c>
+      <c r="E914" t="n">
+        <v>3.735</v>
+      </c>
+      <c r="F914" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="G914" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H914" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="J914" t="n">
+        <v>3.479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J914"/>
+  <dimension ref="A1:J916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29707,6 +29707,70 @@
         <v>3.479</v>
       </c>
     </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B915" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="C915" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="D915" t="n">
+        <v>3.685</v>
+      </c>
+      <c r="E915" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F915" t="n">
+        <v>3.754</v>
+      </c>
+      <c r="G915" t="n">
+        <v>3.736</v>
+      </c>
+      <c r="H915" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="I915" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J915" t="n">
+        <v>3.505</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B916" t="n">
+        <v>3.242</v>
+      </c>
+      <c r="C916" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D916" t="n">
+        <v>3.543</v>
+      </c>
+      <c r="E916" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="F916" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G916" t="n">
+        <v>3.622</v>
+      </c>
+      <c r="H916" t="n">
+        <v>3.515</v>
+      </c>
+      <c r="I916" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J916" t="n">
+        <v>3.417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J916"/>
+  <dimension ref="A1:J917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29771,6 +29771,38 @@
         <v>3.417</v>
       </c>
     </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B917" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C917" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D917" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="E917" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="F917" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G917" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H917" t="n">
+        <v>3.515</v>
+      </c>
+      <c r="I917" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J917" t="n">
+        <v>3.417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J917"/>
+  <dimension ref="A1:J921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29803,6 +29803,134 @@
         <v>3.417</v>
       </c>
     </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B918" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C918" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D918" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="E918" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="F918" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G918" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H918" t="n">
+        <v>3.515</v>
+      </c>
+      <c r="I918" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J918" t="n">
+        <v>3.417</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B919" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C919" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D919" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="E919" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="F919" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G919" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H919" t="n">
+        <v>3.515</v>
+      </c>
+      <c r="I919" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J919" t="n">
+        <v>3.417</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B920" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C920" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D920" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="E920" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="F920" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G920" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H920" t="n">
+        <v>3.515</v>
+      </c>
+      <c r="I920" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J920" t="n">
+        <v>3.417</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B921" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="C921" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="D921" t="n">
+        <v>3.551</v>
+      </c>
+      <c r="E921" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="F921" t="n">
+        <v>3.611</v>
+      </c>
+      <c r="G921" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="H921" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="I921" t="n">
+        <v>3.492</v>
+      </c>
+      <c r="J921" t="n">
+        <v>3.419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Korea.xlsx
+++ b/Bonds_South Korea.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J921"/>
+  <dimension ref="A1:J922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29931,6 +29931,38 @@
         <v>3.419</v>
       </c>
     </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B922" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="C922" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D922" t="n">
+        <v>3.593</v>
+      </c>
+      <c r="E922" t="n">
+        <v>3.619</v>
+      </c>
+      <c r="F922" t="n">
+        <v>3.626</v>
+      </c>
+      <c r="G922" t="n">
+        <v>3.658</v>
+      </c>
+      <c r="H922" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="I922" t="n">
+        <v>3.495</v>
+      </c>
+      <c r="J922" t="n">
+        <v>3.421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
